--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang1/02.XuLyBH/XLBH2101_KimLong.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang1/02.XuLyBH/XLBH2101_KimLong.xlsx
@@ -9,27 +9,30 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
   </bookViews>
   <sheets>
-    <sheet name="ACT-01" sheetId="23" r:id="rId1"/>
-    <sheet name="TG102E" sheetId="19" r:id="rId2"/>
-    <sheet name="TongHopThang" sheetId="22" r:id="rId3"/>
+    <sheet name="TG102LE" sheetId="24" r:id="rId1"/>
+    <sheet name="ACT-01" sheetId="23" r:id="rId2"/>
+    <sheet name="TG102E" sheetId="19" r:id="rId3"/>
+    <sheet name="TongHopThang" sheetId="22" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ACT-01'!$S$1:$S$105</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TG102E!$S$4:$S$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TongHopThang!$S$1:$S$105</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="0">'ACT-01'!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="1">TG102E!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="2">TongHopThang!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'ACT-01'!$S$1:$S$105</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TG102E!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TG102LE!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TongHopThang!$S$1:$S$105</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="1">'ACT-01'!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="2">TG102E!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="0">TG102LE!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="3">TongHopThang!$S$4:$S$51</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="94">
   <si>
     <t>STT</t>
   </si>
@@ -249,9 +252,6 @@
     <t>Thiết bị không lên nguồn</t>
   </si>
   <si>
-    <t>Thay khay sim, nâng cấp FW cho thiết bị</t>
-  </si>
-  <si>
     <t>BT</t>
   </si>
   <si>
@@ -261,9 +261,6 @@
     <t>PC+PM</t>
   </si>
   <si>
-    <t>LK,NCFW</t>
-  </si>
-  <si>
     <t>ACT-01</t>
   </si>
   <si>
@@ -271,6 +268,57 @@
   </si>
   <si>
     <t>Còn BH</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>Thiết bị hỏng MCU</t>
+  </si>
+  <si>
+    <t>Thiết bị hỏng max3232</t>
+  </si>
+  <si>
+    <t>Thay max3232 cho thiết bị</t>
+  </si>
+  <si>
+    <t>LÔ-4</t>
+  </si>
+  <si>
+    <t>Thiết bị hết hạn DV</t>
+  </si>
+  <si>
+    <t>LE.2.00.---28.200624</t>
+  </si>
+  <si>
+    <t>125.212.203.114,15050</t>
+  </si>
+  <si>
+    <t>Ghi chú/Lô SX</t>
+  </si>
+  <si>
+    <t>ID mới : 862549041571657</t>
+  </si>
+  <si>
+    <t>Thay khay sim, module MC60, nâng cấp FW cho thiết bị</t>
+  </si>
+  <si>
+    <t>GSM,LK,NCFW</t>
+  </si>
+  <si>
+    <t>Thiết bị không nhận sim</t>
+  </si>
+  <si>
+    <t>Đổi mới</t>
+  </si>
+  <si>
+    <t>ĐM</t>
+  </si>
+  <si>
+    <t>ID mới : 291220019</t>
+  </si>
+  <si>
+    <t>Xử lý phần cứng, nâng cấp FW</t>
   </si>
 </sst>
 </file>
@@ -487,7 +535,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -684,19 +732,70 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -711,16 +810,10 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -737,6 +830,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1042,10 +1138,1708 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V57"/>
+  <sheetViews>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="23" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="23" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="23" customWidth="1"/>
+    <col min="7" max="7" width="17" style="23" customWidth="1"/>
+    <col min="8" max="8" width="35.42578125" style="23" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="77" customWidth="1"/>
+    <col min="10" max="10" width="53" style="23" customWidth="1"/>
+    <col min="11" max="11" width="33.42578125" style="23" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" style="30" customWidth="1"/>
+    <col min="13" max="13" width="58" style="23" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" style="23" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="23" customWidth="1"/>
+    <col min="16" max="16" width="37.7109375" style="23" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" style="23" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" style="23" customWidth="1"/>
+    <col min="19" max="19" width="26.85546875" style="23" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="23"/>
+    <col min="21" max="21" width="30.5703125" style="23" customWidth="1"/>
+    <col min="22" max="22" width="21.42578125" style="23" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="87" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
+    </row>
+    <row r="2" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="88" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="90"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="32"/>
+    </row>
+    <row r="3" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="31"/>
+      <c r="V3" s="32"/>
+    </row>
+    <row r="4" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="85" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="85" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="85"/>
+      <c r="M4" s="92" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" s="92" t="s">
+        <v>11</v>
+      </c>
+      <c r="O4" s="85" t="s">
+        <v>8</v>
+      </c>
+      <c r="P4" s="84" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="R4" s="85" t="s">
+        <v>62</v>
+      </c>
+      <c r="S4" s="86" t="s">
+        <v>63</v>
+      </c>
+      <c r="T4" s="31"/>
+      <c r="U4" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="V4" s="85" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="91"/>
+      <c r="B5" s="80" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="80" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="80" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="85"/>
+      <c r="K5" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="80" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="93"/>
+      <c r="N5" s="93"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="86"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="85"/>
+      <c r="V5" s="85"/>
+    </row>
+    <row r="6" spans="1:22" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="55">
+        <v>44212</v>
+      </c>
+      <c r="C6" s="55">
+        <v>44214</v>
+      </c>
+      <c r="D6" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="57">
+        <v>868183034520630</v>
+      </c>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" s="56"/>
+      <c r="I6" s="99" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="K6" s="61"/>
+      <c r="L6" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="N6" s="60"/>
+      <c r="O6" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="P6" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="R6" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="S6" s="4"/>
+      <c r="T6" s="79"/>
+      <c r="U6" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>2</v>
+      </c>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="58"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="58"/>
+      <c r="P7" s="58"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="79"/>
+      <c r="U7" s="82"/>
+      <c r="V7" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>3</v>
+      </c>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="59"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="58"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="58"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="79"/>
+      <c r="U8" s="82"/>
+      <c r="V8" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>4</v>
+      </c>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="79"/>
+      <c r="U9" s="82"/>
+      <c r="V9" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>5</v>
+      </c>
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="58"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="79"/>
+      <c r="U10" s="82"/>
+      <c r="V10" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>6</v>
+      </c>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="58"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="79"/>
+      <c r="U11" s="82"/>
+      <c r="V11" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>7</v>
+      </c>
+      <c r="B12" s="55"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="58"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="79"/>
+      <c r="U12" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="V12" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>8</v>
+      </c>
+      <c r="B13" s="55"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="79"/>
+      <c r="U13" s="82"/>
+      <c r="V13" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>9</v>
+      </c>
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="58"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="79"/>
+      <c r="U14" s="82"/>
+      <c r="V14" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>10</v>
+      </c>
+      <c r="B15" s="55"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="58"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="56"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="82"/>
+      <c r="V15" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>11</v>
+      </c>
+      <c r="B16" s="55"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="58"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="58"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="83"/>
+      <c r="V16" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>12</v>
+      </c>
+      <c r="B17" s="55"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="58"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="58"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="56"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="79"/>
+      <c r="V17" s="18"/>
+    </row>
+    <row r="18" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>13</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="58"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="17"/>
+      <c r="V18" s="19"/>
+    </row>
+    <row r="19" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>14</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="58"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="80" t="s">
+        <v>40</v>
+      </c>
+      <c r="V19" s="20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>15</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="58"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="V20" s="11">
+        <f>COUNTIF($Q$6:$Q$51,"PM")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>16</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="71"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="58"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="17"/>
+      <c r="U21" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="V21" s="11">
+        <f>COUNTIF($Q$6:$Q$51,"PC")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>17</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="71"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="58"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="17"/>
+      <c r="U22" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="V22" s="11">
+        <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>18</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="71"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="58"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="17"/>
+      <c r="U23" s="17"/>
+      <c r="V23" s="19"/>
+    </row>
+    <row r="24" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>19</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="58"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="17"/>
+      <c r="U24" s="17"/>
+      <c r="V24" s="19"/>
+    </row>
+    <row r="25" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>20</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="58"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="17"/>
+      <c r="U25" s="80" t="s">
+        <v>55</v>
+      </c>
+      <c r="V25" s="20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>21</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="71"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="58"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="17"/>
+      <c r="U26" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="V26" s="11">
+        <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>22</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="71"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="58"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="17"/>
+      <c r="U27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="V27" s="11">
+        <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>23</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="71"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="58"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="17"/>
+      <c r="U28" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="V28" s="11">
+        <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>24</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="58"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="17"/>
+      <c r="U29" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="V29" s="11">
+        <f>COUNTIF($R$6:$R$51,"*NG*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>25</v>
+      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="71"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="17"/>
+      <c r="U30" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="V30" s="11">
+        <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>26</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="71"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="17"/>
+      <c r="U31" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="V31" s="11">
+        <f>COUNTIF($R$6:$R$51,"*LK*")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>27</v>
+      </c>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="71"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="17"/>
+      <c r="U32" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="V32" s="11">
+        <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>28</v>
+      </c>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="71"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="17"/>
+      <c r="U33" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="V33" s="11">
+        <f>COUNTIF($R$6:$R$51,"*SF*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>29</v>
+      </c>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="71"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="17"/>
+      <c r="U34" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="V34" s="11">
+        <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>30</v>
+      </c>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="71"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="11"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="17"/>
+      <c r="U35" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="V35" s="11">
+        <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>31</v>
+      </c>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="71"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="17"/>
+      <c r="U36" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="V36" s="11">
+        <f>COUNTIF($R$6:$R$51,"*KL*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>32</v>
+      </c>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="71"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="11"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="17"/>
+      <c r="U37" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="V37" s="11">
+        <f>SUM(V26:V36)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>33</v>
+      </c>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="71"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="17"/>
+      <c r="U38" s="17"/>
+      <c r="V38" s="19"/>
+    </row>
+    <row r="39" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>34</v>
+      </c>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="71"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="17"/>
+      <c r="U39" s="17"/>
+      <c r="V39" s="19"/>
+    </row>
+    <row r="40" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>35</v>
+      </c>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="71"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="11"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="17"/>
+      <c r="U40" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="V40" s="11">
+        <f>COUNTIF($O$6:$O$51,"*DM*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>36</v>
+      </c>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="71"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="11"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="17"/>
+      <c r="U41" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="V41" s="11">
+        <f>COUNTIF($O$6:$O$51,"*KS*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>37</v>
+      </c>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="71"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="11"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="17"/>
+      <c r="U42" s="17"/>
+      <c r="V42" s="19"/>
+    </row>
+    <row r="43" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>38</v>
+      </c>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="71"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="11"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="17"/>
+      <c r="U43" s="17"/>
+      <c r="V43" s="19"/>
+    </row>
+    <row r="44" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>39</v>
+      </c>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="71"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="11"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="17"/>
+      <c r="U44" s="17"/>
+      <c r="V44" s="19"/>
+    </row>
+    <row r="45" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>40</v>
+      </c>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="71"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="11"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="17"/>
+      <c r="U45" s="17">
+        <f>COUNTIF(J6:J17,"*ACC*")</f>
+        <v>0</v>
+      </c>
+      <c r="V45" s="19"/>
+    </row>
+    <row r="46" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>41</v>
+      </c>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="71"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="11"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="17"/>
+      <c r="U46" s="17">
+        <f>COUNTIF(J7:J18,"*MCU*")</f>
+        <v>0</v>
+      </c>
+      <c r="V46" s="19"/>
+    </row>
+    <row r="47" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>42</v>
+      </c>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="71"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="11"/>
+      <c r="S47" s="4"/>
+      <c r="T47" s="17"/>
+      <c r="U47" s="17">
+        <f>COUNTIF(J8:J19,"*GPS*")</f>
+        <v>0</v>
+      </c>
+      <c r="V47" s="19"/>
+    </row>
+    <row r="48" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>43</v>
+      </c>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="71"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="11"/>
+      <c r="S48" s="4"/>
+      <c r="T48" s="41">
+        <f>COUNTIF(J9:J20,"*GSM*")</f>
+        <v>0</v>
+      </c>
+      <c r="U48" s="42"/>
+      <c r="V48" s="43"/>
+    </row>
+    <row r="49" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>44</v>
+      </c>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="71"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="11"/>
+      <c r="S49" s="4"/>
+      <c r="T49" s="41"/>
+      <c r="U49" s="42"/>
+      <c r="V49" s="43"/>
+    </row>
+    <row r="50" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="35">
+        <v>45</v>
+      </c>
+      <c r="B50" s="36"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="78"/>
+      <c r="E50" s="37"/>
+      <c r="F50" s="78"/>
+      <c r="G50" s="78"/>
+      <c r="H50" s="38"/>
+      <c r="I50" s="74"/>
+      <c r="J50" s="38"/>
+      <c r="K50" s="38"/>
+      <c r="L50" s="38"/>
+      <c r="M50" s="38"/>
+      <c r="N50" s="38"/>
+      <c r="O50" s="38"/>
+      <c r="P50" s="38"/>
+      <c r="Q50" s="35"/>
+      <c r="R50" s="78"/>
+      <c r="S50" s="35"/>
+      <c r="T50" s="41"/>
+      <c r="U50" s="42"/>
+      <c r="V50" s="43"/>
+    </row>
+    <row r="51" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>46</v>
+      </c>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="71"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="11"/>
+      <c r="S51" s="11"/>
+      <c r="T51" s="41"/>
+      <c r="U51" s="42"/>
+      <c r="V51" s="43"/>
+    </row>
+    <row r="52" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>47</v>
+      </c>
+      <c r="B52" s="39"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="39"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="39"/>
+      <c r="I52" s="75"/>
+      <c r="J52" s="39"/>
+      <c r="K52" s="39"/>
+      <c r="L52" s="40"/>
+      <c r="M52" s="39"/>
+      <c r="N52" s="39"/>
+      <c r="O52" s="39"/>
+      <c r="P52" s="39"/>
+      <c r="Q52" s="39"/>
+      <c r="R52" s="39"/>
+      <c r="S52" s="39"/>
+      <c r="T52" s="41"/>
+      <c r="U52" s="42"/>
+      <c r="V52" s="43"/>
+    </row>
+    <row r="53" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>48</v>
+      </c>
+      <c r="B53" s="39"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="39"/>
+      <c r="I53" s="75"/>
+      <c r="J53" s="39"/>
+      <c r="K53" s="39"/>
+      <c r="L53" s="40"/>
+      <c r="M53" s="39"/>
+      <c r="N53" s="22"/>
+      <c r="O53" s="22"/>
+      <c r="P53" s="39"/>
+      <c r="Q53" s="39"/>
+      <c r="R53" s="39"/>
+      <c r="S53" s="39"/>
+      <c r="T53" s="41"/>
+      <c r="U53" s="42"/>
+      <c r="V53" s="43"/>
+    </row>
+    <row r="54" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>49</v>
+      </c>
+      <c r="B54" s="39"/>
+      <c r="C54" s="39"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="39"/>
+      <c r="F54" s="39"/>
+      <c r="G54" s="39"/>
+      <c r="H54" s="39"/>
+      <c r="I54" s="75"/>
+      <c r="J54" s="39"/>
+      <c r="K54" s="39"/>
+      <c r="L54" s="40"/>
+      <c r="M54" s="39"/>
+      <c r="N54" s="22"/>
+      <c r="O54" s="22"/>
+      <c r="P54" s="39"/>
+      <c r="Q54" s="39"/>
+      <c r="R54" s="39"/>
+      <c r="S54" s="39"/>
+      <c r="T54" s="41"/>
+      <c r="U54" s="42"/>
+      <c r="V54" s="43"/>
+    </row>
+    <row r="55" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <v>50</v>
+      </c>
+      <c r="B55" s="39"/>
+      <c r="C55" s="39"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="39"/>
+      <c r="F55" s="39"/>
+      <c r="G55" s="39"/>
+      <c r="H55" s="39"/>
+      <c r="I55" s="75"/>
+      <c r="J55" s="39"/>
+      <c r="K55" s="39"/>
+      <c r="L55" s="40"/>
+      <c r="M55" s="39"/>
+      <c r="N55" s="22"/>
+      <c r="O55" s="22"/>
+      <c r="P55" s="39"/>
+      <c r="Q55" s="39"/>
+      <c r="R55" s="39"/>
+      <c r="S55" s="39"/>
+      <c r="T55" s="44"/>
+      <c r="U55" s="45"/>
+      <c r="V55" s="46"/>
+    </row>
+    <row r="56" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U56" s="29"/>
+      <c r="V56" s="29"/>
+    </row>
+    <row r="57" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U57" s="29"/>
+      <c r="V57" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1076,43 +2870,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
-      <c r="W1" s="68"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
+      <c r="W1" s="87"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="73"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="6"/>
       <c r="H2" s="25"/>
       <c r="I2" s="25"/>
@@ -1157,58 +2951,58 @@
       <c r="W3" s="32"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66" t="s">
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="66" t="s">
+      <c r="K4" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="66"/>
-      <c r="M4" s="69" t="s">
+      <c r="L4" s="85"/>
+      <c r="M4" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="69" t="s">
+      <c r="N4" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="66" t="s">
+      <c r="O4" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="67" t="s">
+      <c r="P4" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="66" t="s">
+      <c r="Q4" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="66" t="s">
+      <c r="R4" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="97" t="s">
         <v>66</v>
       </c>
       <c r="T4" s="31"/>
       <c r="U4" s="31"/>
-      <c r="V4" s="66" t="s">
+      <c r="V4" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="W4" s="66" t="s">
+      <c r="W4" s="85" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -1233,24 +3027,24 @@
       <c r="I5" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="66"/>
+      <c r="J5" s="85"/>
       <c r="K5" s="64" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="67"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="83"/>
+      <c r="M5" s="93"/>
+      <c r="N5" s="93"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="98"/>
       <c r="T5" s="31"/>
       <c r="U5" s="31"/>
-      <c r="V5" s="66"/>
-      <c r="W5" s="66"/>
+      <c r="V5" s="85"/>
+      <c r="W5" s="85"/>
     </row>
     <row r="6" spans="1:23" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1259,32 +3053,46 @@
       <c r="B6" s="55">
         <v>44208</v>
       </c>
-      <c r="C6" s="55"/>
+      <c r="C6" s="55">
+        <v>44214</v>
+      </c>
       <c r="D6" s="56" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E6" s="57" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F6" s="56"/>
       <c r="G6" s="56" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H6" s="56"/>
       <c r="I6" s="58"/>
-      <c r="J6" s="58"/>
+      <c r="J6" s="58" t="s">
+        <v>79</v>
+      </c>
       <c r="K6" s="61"/>
       <c r="L6" s="58"/>
-      <c r="M6" s="58"/>
+      <c r="M6" s="58" t="s">
+        <v>80</v>
+      </c>
       <c r="N6" s="60"/>
-      <c r="O6" s="58"/>
-      <c r="P6" s="58"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="56"/>
+      <c r="O6" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="P6" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="56" t="s">
+        <v>31</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="31"/>
       <c r="U6" s="63"/>
-      <c r="V6" s="76" t="s">
+      <c r="V6" s="81" t="s">
         <v>19</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -1298,32 +3106,50 @@
       <c r="B7" s="55">
         <v>44208</v>
       </c>
-      <c r="C7" s="55"/>
+      <c r="C7" s="55">
+        <v>44214</v>
+      </c>
       <c r="D7" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="E7" s="57">
-        <v>2</v>
+        <v>74</v>
+      </c>
+      <c r="E7" s="62" t="s">
+        <v>77</v>
       </c>
       <c r="F7" s="56"/>
       <c r="G7" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="I7" s="58" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
       <c r="K7" s="1"/>
       <c r="L7" s="58"/>
-      <c r="M7" s="58"/>
+      <c r="M7" s="58" t="s">
+        <v>90</v>
+      </c>
       <c r="N7" s="3"/>
-      <c r="O7" s="58"/>
-      <c r="P7" s="58"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="61"/>
+      <c r="O7" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="P7" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="61" t="s">
+        <v>31</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="31"/>
       <c r="U7" s="63"/>
-      <c r="V7" s="77"/>
+      <c r="V7" s="82"/>
       <c r="W7" s="4" t="s">
         <v>36</v>
       </c>
@@ -1352,7 +3178,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="31"/>
       <c r="U8" s="63"/>
-      <c r="V8" s="77"/>
+      <c r="V8" s="82"/>
       <c r="W8" s="4" t="s">
         <v>22</v>
       </c>
@@ -1381,7 +3207,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="63"/>
       <c r="U9" s="63"/>
-      <c r="V9" s="77"/>
+      <c r="V9" s="82"/>
       <c r="W9" s="4" t="s">
         <v>60</v>
       </c>
@@ -1410,7 +3236,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="63"/>
       <c r="U10" s="63"/>
-      <c r="V10" s="77"/>
+      <c r="V10" s="82"/>
       <c r="W10" s="4" t="s">
         <v>32</v>
       </c>
@@ -1439,7 +3265,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="63"/>
       <c r="U11" s="63"/>
-      <c r="V11" s="77"/>
+      <c r="V11" s="82"/>
       <c r="W11" s="4" t="s">
         <v>31</v>
       </c>
@@ -1468,7 +3294,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="63"/>
       <c r="U12" s="63"/>
-      <c r="V12" s="76" t="s">
+      <c r="V12" s="81" t="s">
         <v>20</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -1499,7 +3325,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="63"/>
       <c r="U13" s="63"/>
-      <c r="V13" s="77"/>
+      <c r="V13" s="82"/>
       <c r="W13" s="4" t="s">
         <v>38</v>
       </c>
@@ -1528,7 +3354,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="63"/>
       <c r="U14" s="63"/>
-      <c r="V14" s="77"/>
+      <c r="V14" s="82"/>
       <c r="W14" s="4" t="s">
         <v>37</v>
       </c>
@@ -1557,7 +3383,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="63"/>
       <c r="U15" s="17"/>
-      <c r="V15" s="77"/>
+      <c r="V15" s="82"/>
       <c r="W15" s="4" t="s">
         <v>25</v>
       </c>
@@ -1586,7 +3412,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="63"/>
       <c r="U16" s="17"/>
-      <c r="V16" s="78"/>
+      <c r="V16" s="83"/>
       <c r="W16" s="4" t="s">
         <v>26</v>
       </c>
@@ -1737,7 +3563,7 @@
       </c>
       <c r="W21" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PC")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2046,7 +3872,7 @@
       </c>
       <c r="W31" s="11">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2238,7 +4064,7 @@
       </c>
       <c r="W37" s="11">
         <f>SUM(W26:W36)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2820,10 +4646,10 @@
       <c r="S56" s="39"/>
       <c r="T56" s="51"/>
       <c r="U56" s="53"/>
-      <c r="V56" s="79" t="s">
+      <c r="V56" s="94" t="s">
         <v>65</v>
       </c>
-      <c r="W56" s="79">
+      <c r="W56" s="94">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>2</v>
       </c>
@@ -2852,8 +4678,8 @@
       <c r="S57" s="39"/>
       <c r="T57" s="51"/>
       <c r="U57" s="53"/>
-      <c r="V57" s="80"/>
-      <c r="W57" s="80"/>
+      <c r="V57" s="95"/>
+      <c r="W57" s="95"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -2879,8 +4705,8 @@
       <c r="S58" s="39"/>
       <c r="T58" s="51"/>
       <c r="U58" s="53"/>
-      <c r="V58" s="81"/>
-      <c r="W58" s="81"/>
+      <c r="V58" s="96"/>
+      <c r="W58" s="96"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -4167,6 +5993,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -4177,28 +6013,18 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V57"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4229,42 +6055,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
     </row>
     <row r="2" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="73"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="6"/>
       <c r="H2" s="25"/>
       <c r="I2" s="25"/>
@@ -4307,57 +6133,57 @@
       <c r="V3" s="32"/>
     </row>
     <row r="4" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66" t="s">
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="66" t="s">
+      <c r="K4" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="66"/>
-      <c r="M4" s="69" t="s">
+      <c r="L4" s="85"/>
+      <c r="M4" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="69" t="s">
+      <c r="N4" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="66" t="s">
+      <c r="O4" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="67" t="s">
+      <c r="P4" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="66" t="s">
+      <c r="Q4" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="66" t="s">
+      <c r="R4" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="86" t="s">
         <v>63</v>
       </c>
       <c r="T4" s="31"/>
-      <c r="U4" s="66" t="s">
+      <c r="U4" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="V4" s="66" t="s">
+      <c r="V4" s="85" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -4382,23 +6208,23 @@
       <c r="I5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="66"/>
+      <c r="J5" s="85"/>
       <c r="K5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="67"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="75"/>
+      <c r="M5" s="93"/>
+      <c r="N5" s="93"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="86"/>
       <c r="T5" s="31"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
+      <c r="U5" s="85"/>
+      <c r="V5" s="85"/>
     </row>
     <row r="6" spans="1:22" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -4407,7 +6233,9 @@
       <c r="B6" s="55">
         <v>44208</v>
       </c>
-      <c r="C6" s="55"/>
+      <c r="C6" s="55">
+        <v>44214</v>
+      </c>
       <c r="D6" s="56" t="s">
         <v>51</v>
       </c>
@@ -4418,7 +6246,9 @@
       <c r="G6" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="H6" s="56"/>
+      <c r="H6" s="56" t="s">
+        <v>86</v>
+      </c>
       <c r="I6" s="61"/>
       <c r="J6" s="58" t="s">
         <v>70</v>
@@ -4426,24 +6256,24 @@
       <c r="K6" s="61"/>
       <c r="L6" s="58"/>
       <c r="M6" s="58" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="N6" s="60"/>
       <c r="O6" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="P6" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="P6" s="58" t="s">
+      <c r="Q6" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="Q6" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="R6" s="56" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="14"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="81" t="s">
         <v>19</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -4473,7 +6303,7 @@
       <c r="R7" s="56"/>
       <c r="S7" s="4"/>
       <c r="T7" s="14"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="82"/>
       <c r="V7" s="4" t="s">
         <v>36</v>
       </c>
@@ -4501,7 +6331,7 @@
       <c r="R8" s="56"/>
       <c r="S8" s="4"/>
       <c r="T8" s="14"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="82"/>
       <c r="V8" s="4" t="s">
         <v>22</v>
       </c>
@@ -4529,7 +6359,7 @@
       <c r="R9" s="56"/>
       <c r="S9" s="4"/>
       <c r="T9" s="24"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="82"/>
       <c r="V9" s="4" t="s">
         <v>60</v>
       </c>
@@ -4557,7 +6387,7 @@
       <c r="R10" s="56"/>
       <c r="S10" s="4"/>
       <c r="T10" s="33"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="82"/>
       <c r="V10" s="4" t="s">
         <v>32</v>
       </c>
@@ -4585,7 +6415,7 @@
       <c r="R11" s="56"/>
       <c r="S11" s="4"/>
       <c r="T11" s="14"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="82"/>
       <c r="V11" s="4" t="s">
         <v>31</v>
       </c>
@@ -4613,7 +6443,7 @@
       <c r="R12" s="56"/>
       <c r="S12" s="4"/>
       <c r="T12" s="14"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="81" t="s">
         <v>20</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -4643,7 +6473,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="14"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="82"/>
       <c r="V13" s="4" t="s">
         <v>38</v>
       </c>
@@ -4671,7 +6501,7 @@
       <c r="R14" s="56"/>
       <c r="S14" s="4"/>
       <c r="T14" s="14"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="82"/>
       <c r="V14" s="4" t="s">
         <v>37</v>
       </c>
@@ -4699,7 +6529,7 @@
       <c r="R15" s="56"/>
       <c r="S15" s="4"/>
       <c r="T15" s="17"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="82"/>
       <c r="V15" s="4" t="s">
         <v>25</v>
       </c>
@@ -4727,7 +6557,7 @@
       <c r="R16" s="56"/>
       <c r="S16" s="4"/>
       <c r="T16" s="17"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="83"/>
       <c r="V16" s="4" t="s">
         <v>26</v>
       </c>
@@ -5048,7 +6878,7 @@
       </c>
       <c r="V27" s="11">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5358,7 +7188,7 @@
       </c>
       <c r="V37" s="11">
         <f>SUM(V26:V36)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5861,11 +7691,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="P4:P5"/>
@@ -5879,18 +7704,23 @@
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:I20"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5903,7 +7733,7 @@
     <col min="6" max="6" width="15.85546875" style="23" customWidth="1"/>
     <col min="7" max="7" width="17" style="23" customWidth="1"/>
     <col min="8" max="8" width="35.42578125" style="23" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="23" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="77" customWidth="1"/>
     <col min="10" max="10" width="53" style="23" customWidth="1"/>
     <col min="11" max="11" width="33.42578125" style="23" customWidth="1"/>
     <col min="12" max="12" width="30.7109375" style="30" customWidth="1"/>
@@ -5921,46 +7751,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
-      <c r="W1" s="68"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
+      <c r="W1" s="87"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="73"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="6"/>
       <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
+      <c r="I2" s="66"/>
       <c r="J2" s="25"/>
       <c r="K2" s="25"/>
       <c r="L2" s="26"/>
@@ -5985,7 +7815,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
+      <c r="I3" s="67"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="9"/>
@@ -6002,58 +7832,58 @@
       <c r="W3" s="32"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66" t="s">
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="66" t="s">
+      <c r="K4" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="66"/>
-      <c r="M4" s="69" t="s">
+      <c r="L4" s="85"/>
+      <c r="M4" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="69" t="s">
+      <c r="N4" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="66" t="s">
+      <c r="O4" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="67" t="s">
+      <c r="P4" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="66" t="s">
+      <c r="Q4" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="66" t="s">
+      <c r="R4" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="97" t="s">
         <v>66</v>
       </c>
       <c r="T4" s="31"/>
       <c r="U4" s="31"/>
-      <c r="V4" s="66" t="s">
+      <c r="V4" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="W4" s="66" t="s">
+      <c r="W4" s="85" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -6073,44 +7903,58 @@
         <v>5</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I5" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="66"/>
+      <c r="J5" s="85"/>
       <c r="K5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="67"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="83"/>
+      <c r="M5" s="93"/>
+      <c r="N5" s="93"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="98"/>
       <c r="T5" s="31"/>
       <c r="U5" s="31"/>
-      <c r="V5" s="66"/>
-      <c r="W5" s="66"/>
+      <c r="V5" s="85"/>
+      <c r="W5" s="85"/>
     </row>
     <row r="6" spans="1:23" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="55"/>
+      <c r="B6" s="55">
+        <v>44212</v>
+      </c>
       <c r="C6" s="55"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="57"/>
+      <c r="D6" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="57">
+        <v>868183034520630</v>
+      </c>
       <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="58"/>
+      <c r="G6" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="I6" s="69" t="s">
+        <v>84</v>
+      </c>
       <c r="J6" s="58"/>
-      <c r="K6" s="61"/>
+      <c r="K6" s="61" t="s">
+        <v>83</v>
+      </c>
       <c r="L6" s="58"/>
       <c r="M6" s="58"/>
       <c r="N6" s="60"/>
@@ -6121,7 +7965,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="31"/>
       <c r="U6" s="33"/>
-      <c r="V6" s="76" t="s">
+      <c r="V6" s="81" t="s">
         <v>19</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -6139,7 +7983,7 @@
       <c r="F7" s="56"/>
       <c r="G7" s="56"/>
       <c r="H7" s="56"/>
-      <c r="I7" s="58"/>
+      <c r="I7" s="69"/>
       <c r="J7" s="58"/>
       <c r="K7" s="1"/>
       <c r="L7" s="58"/>
@@ -6152,7 +7996,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="31"/>
       <c r="U7" s="33"/>
-      <c r="V7" s="77"/>
+      <c r="V7" s="82"/>
       <c r="W7" s="4" t="s">
         <v>36</v>
       </c>
@@ -6168,7 +8012,7 @@
       <c r="F8" s="56"/>
       <c r="G8" s="56"/>
       <c r="H8" s="56"/>
-      <c r="I8" s="58"/>
+      <c r="I8" s="69"/>
       <c r="J8" s="58"/>
       <c r="K8" s="61"/>
       <c r="L8" s="58"/>
@@ -6181,7 +8025,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="31"/>
       <c r="U8" s="33"/>
-      <c r="V8" s="77"/>
+      <c r="V8" s="82"/>
       <c r="W8" s="4" t="s">
         <v>22</v>
       </c>
@@ -6197,7 +8041,7 @@
       <c r="F9" s="56"/>
       <c r="G9" s="56"/>
       <c r="H9" s="56"/>
-      <c r="I9" s="58"/>
+      <c r="I9" s="69"/>
       <c r="J9" s="58"/>
       <c r="K9" s="1"/>
       <c r="L9" s="61"/>
@@ -6210,7 +8054,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="33"/>
       <c r="U9" s="33"/>
-      <c r="V9" s="77"/>
+      <c r="V9" s="82"/>
       <c r="W9" s="4" t="s">
         <v>60</v>
       </c>
@@ -6226,7 +8070,7 @@
       <c r="F10" s="56"/>
       <c r="G10" s="56"/>
       <c r="H10" s="56"/>
-      <c r="I10" s="58"/>
+      <c r="I10" s="69"/>
       <c r="J10" s="58"/>
       <c r="K10" s="61"/>
       <c r="L10" s="58"/>
@@ -6239,7 +8083,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="33"/>
       <c r="U10" s="33"/>
-      <c r="V10" s="77"/>
+      <c r="V10" s="82"/>
       <c r="W10" s="4" t="s">
         <v>32</v>
       </c>
@@ -6255,7 +8099,7 @@
       <c r="F11" s="56"/>
       <c r="G11" s="56"/>
       <c r="H11" s="56"/>
-      <c r="I11" s="58"/>
+      <c r="I11" s="69"/>
       <c r="J11" s="58"/>
       <c r="K11" s="61"/>
       <c r="L11" s="1"/>
@@ -6268,7 +8112,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="33"/>
       <c r="U11" s="33"/>
-      <c r="V11" s="77"/>
+      <c r="V11" s="82"/>
       <c r="W11" s="4" t="s">
         <v>31</v>
       </c>
@@ -6284,7 +8128,7 @@
       <c r="F12" s="56"/>
       <c r="G12" s="56"/>
       <c r="H12" s="56"/>
-      <c r="I12" s="58"/>
+      <c r="I12" s="69"/>
       <c r="J12" s="58"/>
       <c r="K12" s="1"/>
       <c r="L12" s="61"/>
@@ -6297,7 +8141,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="33"/>
       <c r="U12" s="33"/>
-      <c r="V12" s="76" t="s">
+      <c r="V12" s="81" t="s">
         <v>20</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -6315,7 +8159,7 @@
       <c r="F13" s="56"/>
       <c r="G13" s="56"/>
       <c r="H13" s="56"/>
-      <c r="I13" s="58"/>
+      <c r="I13" s="69"/>
       <c r="J13" s="58"/>
       <c r="K13" s="59"/>
       <c r="L13" s="1"/>
@@ -6328,7 +8172,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="33"/>
       <c r="U13" s="33"/>
-      <c r="V13" s="77"/>
+      <c r="V13" s="82"/>
       <c r="W13" s="4" t="s">
         <v>38</v>
       </c>
@@ -6344,7 +8188,7 @@
       <c r="F14" s="56"/>
       <c r="G14" s="56"/>
       <c r="H14" s="56"/>
-      <c r="I14" s="2"/>
+      <c r="I14" s="70"/>
       <c r="J14" s="1"/>
       <c r="K14" s="58"/>
       <c r="L14" s="1"/>
@@ -6357,7 +8201,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="33"/>
       <c r="U14" s="33"/>
-      <c r="V14" s="77"/>
+      <c r="V14" s="82"/>
       <c r="W14" s="4" t="s">
         <v>37</v>
       </c>
@@ -6373,7 +8217,7 @@
       <c r="F15" s="56"/>
       <c r="G15" s="56"/>
       <c r="H15" s="56"/>
-      <c r="I15" s="2"/>
+      <c r="I15" s="70"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -6386,7 +8230,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="33"/>
       <c r="U15" s="17"/>
-      <c r="V15" s="77"/>
+      <c r="V15" s="82"/>
       <c r="W15" s="4" t="s">
         <v>25</v>
       </c>
@@ -6402,7 +8246,7 @@
       <c r="F16" s="56"/>
       <c r="G16" s="56"/>
       <c r="H16" s="11"/>
-      <c r="I16" s="2"/>
+      <c r="I16" s="70"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -6415,7 +8259,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="33"/>
       <c r="U16" s="17"/>
-      <c r="V16" s="78"/>
+      <c r="V16" s="83"/>
       <c r="W16" s="4" t="s">
         <v>26</v>
       </c>
@@ -6431,7 +8275,7 @@
       <c r="F17" s="56"/>
       <c r="G17" s="56"/>
       <c r="H17" s="56"/>
-      <c r="I17" s="1"/>
+      <c r="I17" s="71"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -6458,7 +8302,7 @@
       <c r="F18" s="56"/>
       <c r="G18" s="56"/>
       <c r="H18" s="56"/>
-      <c r="I18" s="16"/>
+      <c r="I18" s="72"/>
       <c r="J18" s="16"/>
       <c r="K18" s="16"/>
       <c r="L18" s="1"/>
@@ -6485,7 +8329,7 @@
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
+      <c r="I19" s="71"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -6516,7 +8360,7 @@
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
+      <c r="I20" s="71"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -6548,7 +8392,7 @@
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
+      <c r="I21" s="71"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -6580,7 +8424,7 @@
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
+      <c r="I22" s="73"/>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
@@ -6612,7 +8456,7 @@
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
+      <c r="I23" s="73"/>
       <c r="J23" s="11"/>
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
@@ -6639,7 +8483,7 @@
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
+      <c r="I24" s="73"/>
       <c r="J24" s="11"/>
       <c r="K24" s="11"/>
       <c r="L24" s="11"/>
@@ -6666,7 +8510,7 @@
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
+      <c r="I25" s="73"/>
       <c r="J25" s="11"/>
       <c r="K25" s="11"/>
       <c r="L25" s="11"/>
@@ -6697,7 +8541,7 @@
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
+      <c r="I26" s="73"/>
       <c r="J26" s="1"/>
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
@@ -6729,7 +8573,7 @@
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
+      <c r="I27" s="73"/>
       <c r="J27" s="11"/>
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
@@ -6761,7 +8605,7 @@
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
+      <c r="I28" s="71"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -6793,7 +8637,7 @@
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
+      <c r="I29" s="71"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -6825,7 +8669,7 @@
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
+      <c r="I30" s="71"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -6857,7 +8701,7 @@
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
+      <c r="I31" s="71"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -6889,7 +8733,7 @@
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
+      <c r="I32" s="71"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -6921,7 +8765,7 @@
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
+      <c r="I33" s="71"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -6953,7 +8797,7 @@
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
+      <c r="I34" s="71"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -6985,7 +8829,7 @@
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
+      <c r="I35" s="71"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -7017,7 +8861,7 @@
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
+      <c r="I36" s="71"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -7049,7 +8893,7 @@
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
+      <c r="I37" s="71"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -7081,7 +8925,7 @@
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
+      <c r="I38" s="71"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -7108,7 +8952,7 @@
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
+      <c r="I39" s="71"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -7135,7 +8979,7 @@
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
+      <c r="I40" s="71"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -7167,7 +9011,7 @@
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
+      <c r="I41" s="71"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -7199,7 +9043,7 @@
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
+      <c r="I42" s="71"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -7226,7 +9070,7 @@
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
+      <c r="I43" s="71"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -7253,7 +9097,7 @@
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
+      <c r="I44" s="71"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -7284,7 +9128,7 @@
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
+      <c r="I45" s="71"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -7316,7 +9160,7 @@
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
+      <c r="I46" s="71"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -7334,7 +9178,7 @@
       </c>
       <c r="W46" s="11">
         <f>COUNTIF($D$6:$D$105,"TG102LE")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7348,7 +9192,7 @@
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
+      <c r="I47" s="71"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -7380,7 +9224,7 @@
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
+      <c r="I48" s="71"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -7412,7 +9256,7 @@
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
+      <c r="I49" s="71"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -7444,7 +9288,7 @@
       <c r="F50" s="34"/>
       <c r="G50" s="34"/>
       <c r="H50" s="38"/>
-      <c r="I50" s="38"/>
+      <c r="I50" s="74"/>
       <c r="J50" s="38"/>
       <c r="K50" s="38"/>
       <c r="L50" s="38"/>
@@ -7476,7 +9320,7 @@
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
+      <c r="I51" s="71"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -7508,7 +9352,7 @@
       <c r="F52" s="39"/>
       <c r="G52" s="39"/>
       <c r="H52" s="39"/>
-      <c r="I52" s="39"/>
+      <c r="I52" s="75"/>
       <c r="J52" s="39"/>
       <c r="K52" s="39"/>
       <c r="L52" s="40"/>
@@ -7540,7 +9384,7 @@
       <c r="F53" s="39"/>
       <c r="G53" s="39"/>
       <c r="H53" s="39"/>
-      <c r="I53" s="39"/>
+      <c r="I53" s="75"/>
       <c r="J53" s="39"/>
       <c r="K53" s="39"/>
       <c r="L53" s="40"/>
@@ -7572,7 +9416,7 @@
       <c r="F54" s="47"/>
       <c r="G54" s="47"/>
       <c r="H54" s="47"/>
-      <c r="I54" s="47"/>
+      <c r="I54" s="76"/>
       <c r="J54" s="47"/>
       <c r="K54" s="47"/>
       <c r="L54" s="48"/>
@@ -7604,7 +9448,7 @@
       <c r="F55" s="39"/>
       <c r="G55" s="39"/>
       <c r="H55" s="39"/>
-      <c r="I55" s="39"/>
+      <c r="I55" s="75"/>
       <c r="J55" s="39"/>
       <c r="K55" s="39"/>
       <c r="L55" s="40"/>
@@ -7636,7 +9480,7 @@
       <c r="F56" s="39"/>
       <c r="G56" s="39"/>
       <c r="H56" s="39"/>
-      <c r="I56" s="39"/>
+      <c r="I56" s="75"/>
       <c r="J56" s="39"/>
       <c r="K56" s="39"/>
       <c r="L56" s="40"/>
@@ -7649,10 +9493,10 @@
       <c r="S56" s="39"/>
       <c r="T56" s="51"/>
       <c r="U56" s="53"/>
-      <c r="V56" s="79" t="s">
+      <c r="V56" s="94" t="s">
         <v>65</v>
       </c>
-      <c r="W56" s="79">
+      <c r="W56" s="94">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -7668,7 +9512,7 @@
       <c r="F57" s="39"/>
       <c r="G57" s="39"/>
       <c r="H57" s="39"/>
-      <c r="I57" s="39"/>
+      <c r="I57" s="75"/>
       <c r="J57" s="39"/>
       <c r="K57" s="39"/>
       <c r="L57" s="40"/>
@@ -7681,8 +9525,8 @@
       <c r="S57" s="39"/>
       <c r="T57" s="51"/>
       <c r="U57" s="53"/>
-      <c r="V57" s="80"/>
-      <c r="W57" s="80"/>
+      <c r="V57" s="95"/>
+      <c r="W57" s="95"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -7695,7 +9539,7 @@
       <c r="F58" s="39"/>
       <c r="G58" s="39"/>
       <c r="H58" s="39"/>
-      <c r="I58" s="39"/>
+      <c r="I58" s="75"/>
       <c r="J58" s="39"/>
       <c r="K58" s="39"/>
       <c r="L58" s="40"/>
@@ -7708,8 +9552,8 @@
       <c r="S58" s="39"/>
       <c r="T58" s="51"/>
       <c r="U58" s="53"/>
-      <c r="V58" s="81"/>
-      <c r="W58" s="81"/>
+      <c r="V58" s="96"/>
+      <c r="W58" s="96"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -7722,7 +9566,7 @@
       <c r="F59" s="39"/>
       <c r="G59" s="39"/>
       <c r="H59" s="39"/>
-      <c r="I59" s="39"/>
+      <c r="I59" s="75"/>
       <c r="J59" s="39"/>
       <c r="K59" s="39"/>
       <c r="L59" s="40"/>
@@ -7749,7 +9593,7 @@
       <c r="F60" s="39"/>
       <c r="G60" s="39"/>
       <c r="H60" s="39"/>
-      <c r="I60" s="39"/>
+      <c r="I60" s="75"/>
       <c r="J60" s="39"/>
       <c r="K60" s="39"/>
       <c r="L60" s="40"/>
@@ -7776,7 +9620,7 @@
       <c r="F61" s="39"/>
       <c r="G61" s="39"/>
       <c r="H61" s="39"/>
-      <c r="I61" s="39"/>
+      <c r="I61" s="75"/>
       <c r="J61" s="39"/>
       <c r="K61" s="39"/>
       <c r="L61" s="40"/>
@@ -7808,7 +9652,7 @@
       <c r="F62" s="39"/>
       <c r="G62" s="39"/>
       <c r="H62" s="39"/>
-      <c r="I62" s="39"/>
+      <c r="I62" s="75"/>
       <c r="J62" s="39"/>
       <c r="K62" s="39"/>
       <c r="L62" s="40"/>
@@ -7840,7 +9684,7 @@
       <c r="F63" s="39"/>
       <c r="G63" s="39"/>
       <c r="H63" s="39"/>
-      <c r="I63" s="39"/>
+      <c r="I63" s="75"/>
       <c r="J63" s="39"/>
       <c r="K63" s="39"/>
       <c r="L63" s="40"/>
@@ -7867,7 +9711,7 @@
       <c r="F64" s="39"/>
       <c r="G64" s="39"/>
       <c r="H64" s="39"/>
-      <c r="I64" s="39"/>
+      <c r="I64" s="75"/>
       <c r="J64" s="39"/>
       <c r="K64" s="39"/>
       <c r="L64" s="40"/>
@@ -7894,7 +9738,7 @@
       <c r="F65" s="39"/>
       <c r="G65" s="39"/>
       <c r="H65" s="39"/>
-      <c r="I65" s="39"/>
+      <c r="I65" s="75"/>
       <c r="J65" s="39"/>
       <c r="K65" s="39"/>
       <c r="L65" s="40"/>
@@ -7921,7 +9765,7 @@
       <c r="F66" s="39"/>
       <c r="G66" s="39"/>
       <c r="H66" s="39"/>
-      <c r="I66" s="39"/>
+      <c r="I66" s="75"/>
       <c r="J66" s="39"/>
       <c r="K66" s="39"/>
       <c r="L66" s="40"/>
@@ -7948,7 +9792,7 @@
       <c r="F67" s="39"/>
       <c r="G67" s="39"/>
       <c r="H67" s="39"/>
-      <c r="I67" s="39"/>
+      <c r="I67" s="75"/>
       <c r="J67" s="39"/>
       <c r="K67" s="39"/>
       <c r="L67" s="40"/>
@@ -7978,7 +9822,7 @@
       <c r="F68" s="39"/>
       <c r="G68" s="39"/>
       <c r="H68" s="39"/>
-      <c r="I68" s="39"/>
+      <c r="I68" s="75"/>
       <c r="J68" s="39"/>
       <c r="K68" s="39"/>
       <c r="L68" s="40"/>
@@ -8005,7 +9849,7 @@
       <c r="F69" s="39"/>
       <c r="G69" s="39"/>
       <c r="H69" s="39"/>
-      <c r="I69" s="39"/>
+      <c r="I69" s="75"/>
       <c r="J69" s="39"/>
       <c r="K69" s="39"/>
       <c r="L69" s="40"/>
@@ -8032,7 +9876,7 @@
       <c r="F70" s="39"/>
       <c r="G70" s="39"/>
       <c r="H70" s="39"/>
-      <c r="I70" s="39"/>
+      <c r="I70" s="75"/>
       <c r="J70" s="39"/>
       <c r="K70" s="39"/>
       <c r="L70" s="40"/>
@@ -8059,7 +9903,7 @@
       <c r="F71" s="39"/>
       <c r="G71" s="39"/>
       <c r="H71" s="39"/>
-      <c r="I71" s="39"/>
+      <c r="I71" s="75"/>
       <c r="J71" s="39"/>
       <c r="K71" s="39"/>
       <c r="L71" s="40"/>
@@ -8086,7 +9930,7 @@
       <c r="F72" s="39"/>
       <c r="G72" s="39"/>
       <c r="H72" s="39"/>
-      <c r="I72" s="39"/>
+      <c r="I72" s="75"/>
       <c r="J72" s="39"/>
       <c r="K72" s="39"/>
       <c r="L72" s="40"/>
@@ -8113,7 +9957,7 @@
       <c r="F73" s="39"/>
       <c r="G73" s="39"/>
       <c r="H73" s="39"/>
-      <c r="I73" s="39"/>
+      <c r="I73" s="75"/>
       <c r="J73" s="39"/>
       <c r="K73" s="39"/>
       <c r="L73" s="40"/>
@@ -8140,7 +9984,7 @@
       <c r="F74" s="39"/>
       <c r="G74" s="39"/>
       <c r="H74" s="39"/>
-      <c r="I74" s="39"/>
+      <c r="I74" s="75"/>
       <c r="J74" s="39"/>
       <c r="K74" s="39"/>
       <c r="L74" s="40"/>
@@ -8167,7 +10011,7 @@
       <c r="F75" s="39"/>
       <c r="G75" s="39"/>
       <c r="H75" s="39"/>
-      <c r="I75" s="39"/>
+      <c r="I75" s="75"/>
       <c r="J75" s="39"/>
       <c r="K75" s="39"/>
       <c r="L75" s="40"/>
@@ -8194,7 +10038,7 @@
       <c r="F76" s="39"/>
       <c r="G76" s="39"/>
       <c r="H76" s="39"/>
-      <c r="I76" s="39"/>
+      <c r="I76" s="75"/>
       <c r="J76" s="39"/>
       <c r="K76" s="39"/>
       <c r="L76" s="40"/>
@@ -8221,7 +10065,7 @@
       <c r="F77" s="39"/>
       <c r="G77" s="39"/>
       <c r="H77" s="39"/>
-      <c r="I77" s="39"/>
+      <c r="I77" s="75"/>
       <c r="J77" s="39"/>
       <c r="K77" s="39"/>
       <c r="L77" s="40"/>
@@ -8248,7 +10092,7 @@
       <c r="F78" s="39"/>
       <c r="G78" s="39"/>
       <c r="H78" s="39"/>
-      <c r="I78" s="39"/>
+      <c r="I78" s="75"/>
       <c r="J78" s="39"/>
       <c r="K78" s="39"/>
       <c r="L78" s="40"/>
@@ -8275,7 +10119,7 @@
       <c r="F79" s="39"/>
       <c r="G79" s="39"/>
       <c r="H79" s="39"/>
-      <c r="I79" s="39"/>
+      <c r="I79" s="75"/>
       <c r="J79" s="39"/>
       <c r="K79" s="39"/>
       <c r="L79" s="40"/>
@@ -8302,7 +10146,7 @@
       <c r="F80" s="39"/>
       <c r="G80" s="39"/>
       <c r="H80" s="39"/>
-      <c r="I80" s="39"/>
+      <c r="I80" s="75"/>
       <c r="J80" s="39"/>
       <c r="K80" s="39"/>
       <c r="L80" s="40"/>
@@ -8329,7 +10173,7 @@
       <c r="F81" s="39"/>
       <c r="G81" s="39"/>
       <c r="H81" s="39"/>
-      <c r="I81" s="39"/>
+      <c r="I81" s="75"/>
       <c r="J81" s="39"/>
       <c r="K81" s="39"/>
       <c r="L81" s="40"/>
@@ -8356,7 +10200,7 @@
       <c r="F82" s="39"/>
       <c r="G82" s="39"/>
       <c r="H82" s="39"/>
-      <c r="I82" s="39"/>
+      <c r="I82" s="75"/>
       <c r="J82" s="39"/>
       <c r="K82" s="39"/>
       <c r="L82" s="40"/>
@@ -8383,7 +10227,7 @@
       <c r="F83" s="39"/>
       <c r="G83" s="39"/>
       <c r="H83" s="39"/>
-      <c r="I83" s="39"/>
+      <c r="I83" s="75"/>
       <c r="J83" s="39"/>
       <c r="K83" s="39"/>
       <c r="L83" s="40"/>
@@ -8410,7 +10254,7 @@
       <c r="F84" s="39"/>
       <c r="G84" s="39"/>
       <c r="H84" s="39"/>
-      <c r="I84" s="39"/>
+      <c r="I84" s="75"/>
       <c r="J84" s="39"/>
       <c r="K84" s="39"/>
       <c r="L84" s="40"/>
@@ -8437,7 +10281,7 @@
       <c r="F85" s="39"/>
       <c r="G85" s="39"/>
       <c r="H85" s="39"/>
-      <c r="I85" s="39"/>
+      <c r="I85" s="75"/>
       <c r="J85" s="39"/>
       <c r="K85" s="39"/>
       <c r="L85" s="40"/>
@@ -8464,7 +10308,7 @@
       <c r="F86" s="39"/>
       <c r="G86" s="39"/>
       <c r="H86" s="39"/>
-      <c r="I86" s="39"/>
+      <c r="I86" s="75"/>
       <c r="J86" s="39"/>
       <c r="K86" s="39"/>
       <c r="L86" s="40"/>
@@ -8491,7 +10335,7 @@
       <c r="F87" s="39"/>
       <c r="G87" s="39"/>
       <c r="H87" s="39"/>
-      <c r="I87" s="39"/>
+      <c r="I87" s="75"/>
       <c r="J87" s="39"/>
       <c r="K87" s="39"/>
       <c r="L87" s="40"/>
@@ -8518,7 +10362,7 @@
       <c r="F88" s="39"/>
       <c r="G88" s="39"/>
       <c r="H88" s="39"/>
-      <c r="I88" s="39"/>
+      <c r="I88" s="75"/>
       <c r="J88" s="39"/>
       <c r="K88" s="39"/>
       <c r="L88" s="40"/>
@@ -8545,7 +10389,7 @@
       <c r="F89" s="39"/>
       <c r="G89" s="39"/>
       <c r="H89" s="39"/>
-      <c r="I89" s="39"/>
+      <c r="I89" s="75"/>
       <c r="J89" s="39"/>
       <c r="K89" s="39"/>
       <c r="L89" s="40"/>
@@ -8572,7 +10416,7 @@
       <c r="F90" s="39"/>
       <c r="G90" s="39"/>
       <c r="H90" s="39"/>
-      <c r="I90" s="39"/>
+      <c r="I90" s="75"/>
       <c r="J90" s="39"/>
       <c r="K90" s="39"/>
       <c r="L90" s="40"/>
@@ -8599,7 +10443,7 @@
       <c r="F91" s="39"/>
       <c r="G91" s="39"/>
       <c r="H91" s="39"/>
-      <c r="I91" s="39"/>
+      <c r="I91" s="75"/>
       <c r="J91" s="39"/>
       <c r="K91" s="39"/>
       <c r="L91" s="40"/>
@@ -8626,7 +10470,7 @@
       <c r="F92" s="39"/>
       <c r="G92" s="39"/>
       <c r="H92" s="39"/>
-      <c r="I92" s="39"/>
+      <c r="I92" s="75"/>
       <c r="J92" s="39"/>
       <c r="K92" s="39"/>
       <c r="L92" s="40"/>
@@ -8653,7 +10497,7 @@
       <c r="F93" s="39"/>
       <c r="G93" s="39"/>
       <c r="H93" s="39"/>
-      <c r="I93" s="39"/>
+      <c r="I93" s="75"/>
       <c r="J93" s="39"/>
       <c r="K93" s="39"/>
       <c r="L93" s="40"/>
@@ -8680,7 +10524,7 @@
       <c r="F94" s="39"/>
       <c r="G94" s="39"/>
       <c r="H94" s="39"/>
-      <c r="I94" s="39"/>
+      <c r="I94" s="75"/>
       <c r="J94" s="39"/>
       <c r="K94" s="39"/>
       <c r="L94" s="40"/>
@@ -8707,7 +10551,7 @@
       <c r="F95" s="39"/>
       <c r="G95" s="39"/>
       <c r="H95" s="39"/>
-      <c r="I95" s="39"/>
+      <c r="I95" s="75"/>
       <c r="J95" s="39"/>
       <c r="K95" s="39"/>
       <c r="L95" s="40"/>
@@ -8734,7 +10578,7 @@
       <c r="F96" s="39"/>
       <c r="G96" s="39"/>
       <c r="H96" s="39"/>
-      <c r="I96" s="39"/>
+      <c r="I96" s="75"/>
       <c r="J96" s="39"/>
       <c r="K96" s="39"/>
       <c r="L96" s="40"/>
@@ -8761,7 +10605,7 @@
       <c r="F97" s="39"/>
       <c r="G97" s="39"/>
       <c r="H97" s="39"/>
-      <c r="I97" s="39"/>
+      <c r="I97" s="75"/>
       <c r="J97" s="39"/>
       <c r="K97" s="39"/>
       <c r="L97" s="40"/>
@@ -8788,7 +10632,7 @@
       <c r="F98" s="39"/>
       <c r="G98" s="39"/>
       <c r="H98" s="39"/>
-      <c r="I98" s="39"/>
+      <c r="I98" s="75"/>
       <c r="J98" s="39"/>
       <c r="K98" s="39"/>
       <c r="L98" s="40"/>
@@ -8815,7 +10659,7 @@
       <c r="F99" s="39"/>
       <c r="G99" s="39"/>
       <c r="H99" s="39"/>
-      <c r="I99" s="39"/>
+      <c r="I99" s="75"/>
       <c r="J99" s="39"/>
       <c r="K99" s="39"/>
       <c r="L99" s="40"/>
@@ -8842,7 +10686,7 @@
       <c r="F100" s="39"/>
       <c r="G100" s="39"/>
       <c r="H100" s="39"/>
-      <c r="I100" s="39"/>
+      <c r="I100" s="75"/>
       <c r="J100" s="39"/>
       <c r="K100" s="39"/>
       <c r="L100" s="40"/>
@@ -8869,7 +10713,7 @@
       <c r="F101" s="39"/>
       <c r="G101" s="39"/>
       <c r="H101" s="39"/>
-      <c r="I101" s="39"/>
+      <c r="I101" s="75"/>
       <c r="J101" s="39"/>
       <c r="K101" s="39"/>
       <c r="L101" s="40"/>
@@ -8896,7 +10740,7 @@
       <c r="F102" s="39"/>
       <c r="G102" s="39"/>
       <c r="H102" s="39"/>
-      <c r="I102" s="39"/>
+      <c r="I102" s="75"/>
       <c r="J102" s="39"/>
       <c r="K102" s="39"/>
       <c r="L102" s="40"/>
@@ -8923,7 +10767,7 @@
       <c r="F103" s="39"/>
       <c r="G103" s="39"/>
       <c r="H103" s="39"/>
-      <c r="I103" s="39"/>
+      <c r="I103" s="75"/>
       <c r="J103" s="39"/>
       <c r="K103" s="39"/>
       <c r="L103" s="40"/>
@@ -8950,7 +10794,7 @@
       <c r="F104" s="39"/>
       <c r="G104" s="39"/>
       <c r="H104" s="39"/>
-      <c r="I104" s="39"/>
+      <c r="I104" s="75"/>
       <c r="J104" s="39"/>
       <c r="K104" s="39"/>
       <c r="L104" s="40"/>
@@ -8977,7 +10821,7 @@
       <c r="F105" s="39"/>
       <c r="G105" s="39"/>
       <c r="H105" s="39"/>
-      <c r="I105" s="39"/>
+      <c r="I105" s="75"/>
       <c r="J105" s="39"/>
       <c r="K105" s="39"/>
       <c r="L105" s="40"/>
@@ -8996,6 +10840,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -9006,16 +10860,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang1/02.XuLyBH/XLBH2101_KimLong.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang1/02.XuLyBH/XLBH2101_KimLong.xlsx
@@ -9,30 +9,33 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="TG102LE" sheetId="24" r:id="rId1"/>
-    <sheet name="ACT-01" sheetId="23" r:id="rId2"/>
-    <sheet name="TG102E" sheetId="19" r:id="rId3"/>
-    <sheet name="TongHopThang" sheetId="22" r:id="rId4"/>
+    <sheet name="TG102SE" sheetId="25" r:id="rId1"/>
+    <sheet name="TG102LE" sheetId="24" r:id="rId2"/>
+    <sheet name="ACT-01" sheetId="23" r:id="rId3"/>
+    <sheet name="TG102E" sheetId="19" r:id="rId4"/>
+    <sheet name="TongHopThang" sheetId="22" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'ACT-01'!$S$1:$S$105</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TG102E!$S$4:$S$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TG102LE!$S$4:$S$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TongHopThang!$S$1:$S$105</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="1">'ACT-01'!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="2">TG102E!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="0">TG102LE!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="3">TongHopThang!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'ACT-01'!$S$1:$S$105</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TG102E!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TG102LE!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TG102SE!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">TongHopThang!$S$1:$S$105</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="2">'ACT-01'!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="3">TG102E!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="1">TG102LE!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="0">TG102SE!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="4">TongHopThang!$S$4:$S$51</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="101">
   <si>
     <t>STT</t>
   </si>
@@ -282,9 +285,6 @@
     <t>Thay max3232 cho thiết bị</t>
   </si>
   <si>
-    <t>LÔ-4</t>
-  </si>
-  <si>
     <t>Thiết bị hết hạn DV</t>
   </si>
   <si>
@@ -318,7 +318,31 @@
     <t>ID mới : 291220019</t>
   </si>
   <si>
-    <t>Xử lý phần cứng, nâng cấp FW</t>
+    <t>Thay module SIM 868, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>ID mới : 868183033791430</t>
+  </si>
+  <si>
+    <t>Lô 3-20</t>
+  </si>
+  <si>
+    <t>042020004</t>
+  </si>
+  <si>
+    <t>Thay MCU cho thiết bị</t>
+  </si>
+  <si>
+    <t>SE.4.00.---06.200622</t>
+  </si>
+  <si>
+    <t>125.212.203.114,14747</t>
+  </si>
+  <si>
+    <t>Thiết bị oxi hóa mạch, không nhận sim</t>
+  </si>
+  <si>
+    <t>Hàn lại khay sim</t>
   </si>
 </sst>
 </file>
@@ -535,7 +559,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -777,22 +801,22 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -816,6 +840,21 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -830,9 +869,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1140,8 +1176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1253,49 +1289,1747 @@
       <c r="A4" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="85" t="s">
+      <c r="K4" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="85"/>
+      <c r="L4" s="86"/>
       <c r="M4" s="92" t="s">
         <v>43</v>
       </c>
       <c r="N4" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="85" t="s">
+      <c r="O4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="84" t="s">
+      <c r="P4" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="85" t="s">
+      <c r="Q4" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="85" t="s">
+      <c r="R4" s="86" t="s">
         <v>62</v>
       </c>
-      <c r="S4" s="86" t="s">
+      <c r="S4" s="98" t="s">
         <v>63</v>
       </c>
       <c r="T4" s="31"/>
-      <c r="U4" s="85" t="s">
+      <c r="U4" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="V4" s="85" t="s">
+      <c r="V4" s="86" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="91"/>
+      <c r="B5" s="83" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="83" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="83" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="83" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="83" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="83" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="86"/>
+      <c r="K5" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="83" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="93"/>
+      <c r="N5" s="93"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="97"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="98"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
+    </row>
+    <row r="6" spans="1:22" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="55">
+        <v>44216</v>
+      </c>
+      <c r="C6" s="55">
+        <v>44217</v>
+      </c>
+      <c r="D6" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="57">
+        <v>864811037149015</v>
+      </c>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" s="85"/>
+      <c r="I6" s="81" t="s">
+        <v>98</v>
+      </c>
+      <c r="J6" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="K6" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="L6" s="58"/>
+      <c r="M6" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="N6" s="60"/>
+      <c r="O6" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="P6" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="S6" s="4"/>
+      <c r="T6" s="82"/>
+      <c r="U6" s="94" t="s">
+        <v>19</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>2</v>
+      </c>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="58"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="58"/>
+      <c r="P7" s="58"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="82"/>
+      <c r="U7" s="95"/>
+      <c r="V7" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>3</v>
+      </c>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="59"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="58"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="58"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="82"/>
+      <c r="U8" s="95"/>
+      <c r="V8" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>4</v>
+      </c>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="82"/>
+      <c r="U9" s="95"/>
+      <c r="V9" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>5</v>
+      </c>
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="58"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="82"/>
+      <c r="U10" s="95"/>
+      <c r="V10" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>6</v>
+      </c>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="58"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="82"/>
+      <c r="U11" s="95"/>
+      <c r="V11" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>7</v>
+      </c>
+      <c r="B12" s="55"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="58"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="82"/>
+      <c r="U12" s="94" t="s">
+        <v>20</v>
+      </c>
+      <c r="V12" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>8</v>
+      </c>
+      <c r="B13" s="55"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="82"/>
+      <c r="U13" s="95"/>
+      <c r="V13" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>9</v>
+      </c>
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="58"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="82"/>
+      <c r="U14" s="95"/>
+      <c r="V14" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>10</v>
+      </c>
+      <c r="B15" s="55"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="58"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="56"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="95"/>
+      <c r="V15" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>11</v>
+      </c>
+      <c r="B16" s="55"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="58"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="58"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="96"/>
+      <c r="V16" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>12</v>
+      </c>
+      <c r="B17" s="55"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="58"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="58"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="56"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="82"/>
+      <c r="V17" s="18"/>
+    </row>
+    <row r="18" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>13</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="58"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="17"/>
+      <c r="V18" s="19"/>
+    </row>
+    <row r="19" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>14</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="58"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="83" t="s">
+        <v>40</v>
+      </c>
+      <c r="V19" s="20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>15</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="58"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="V20" s="11">
+        <f>COUNTIF($Q$6:$Q$51,"PM")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>16</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="71"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="58"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="17"/>
+      <c r="U21" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="V21" s="11">
+        <f>COUNTIF($Q$6:$Q$51,"PC")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>17</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="71"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="58"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="17"/>
+      <c r="U22" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="V22" s="11">
+        <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>18</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="71"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="58"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="17"/>
+      <c r="U23" s="17"/>
+      <c r="V23" s="19"/>
+    </row>
+    <row r="24" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>19</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="58"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="17"/>
+      <c r="U24" s="17"/>
+      <c r="V24" s="19"/>
+    </row>
+    <row r="25" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>20</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="58"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="17"/>
+      <c r="U25" s="83" t="s">
+        <v>55</v>
+      </c>
+      <c r="V25" s="20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>21</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="71"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="58"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="17"/>
+      <c r="U26" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="V26" s="11">
+        <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>22</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="71"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="58"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="17"/>
+      <c r="U27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="V27" s="11">
+        <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>23</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="71"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="58"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="17"/>
+      <c r="U28" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="V28" s="11">
+        <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>24</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="58"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="17"/>
+      <c r="U29" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="V29" s="11">
+        <f>COUNTIF($R$6:$R$51,"*NG*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>25</v>
+      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="71"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="17"/>
+      <c r="U30" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="V30" s="11">
+        <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>26</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="71"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="17"/>
+      <c r="U31" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="V31" s="11">
+        <f>COUNTIF($R$6:$R$51,"*LK*")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>27</v>
+      </c>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="71"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="17"/>
+      <c r="U32" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="V32" s="11">
+        <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>28</v>
+      </c>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="71"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="17"/>
+      <c r="U33" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="V33" s="11">
+        <f>COUNTIF($R$6:$R$51,"*SF*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>29</v>
+      </c>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="71"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="17"/>
+      <c r="U34" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="V34" s="11">
+        <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>30</v>
+      </c>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="71"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="11"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="17"/>
+      <c r="U35" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="V35" s="11">
+        <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>31</v>
+      </c>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="71"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="17"/>
+      <c r="U36" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="V36" s="11">
+        <f>COUNTIF($R$6:$R$51,"*KL*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>32</v>
+      </c>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="71"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="11"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="17"/>
+      <c r="U37" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="V37" s="11">
+        <f>SUM(V26:V36)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>33</v>
+      </c>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="71"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="17"/>
+      <c r="U38" s="17"/>
+      <c r="V38" s="19"/>
+    </row>
+    <row r="39" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>34</v>
+      </c>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="71"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="17"/>
+      <c r="U39" s="17"/>
+      <c r="V39" s="19"/>
+    </row>
+    <row r="40" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>35</v>
+      </c>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="71"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="11"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="17"/>
+      <c r="U40" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="V40" s="11">
+        <f>COUNTIF($O$6:$O$51,"*DM*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>36</v>
+      </c>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="71"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="11"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="17"/>
+      <c r="U41" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="V41" s="11">
+        <f>COUNTIF($O$6:$O$51,"*KS*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>37</v>
+      </c>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="71"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="11"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="17"/>
+      <c r="U42" s="17"/>
+      <c r="V42" s="19"/>
+    </row>
+    <row r="43" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>38</v>
+      </c>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="71"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="11"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="17"/>
+      <c r="U43" s="17"/>
+      <c r="V43" s="19"/>
+    </row>
+    <row r="44" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>39</v>
+      </c>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="71"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="11"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="17"/>
+      <c r="U44" s="17"/>
+      <c r="V44" s="19"/>
+    </row>
+    <row r="45" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>40</v>
+      </c>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="71"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="11"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="17"/>
+      <c r="U45" s="17">
+        <f>COUNTIF(J6:J17,"*ACC*")</f>
+        <v>0</v>
+      </c>
+      <c r="V45" s="19"/>
+    </row>
+    <row r="46" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>41</v>
+      </c>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="71"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="11"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="17"/>
+      <c r="U46" s="17">
+        <f>COUNTIF(J7:J18,"*MCU*")</f>
+        <v>0</v>
+      </c>
+      <c r="V46" s="19"/>
+    </row>
+    <row r="47" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>42</v>
+      </c>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="71"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="11"/>
+      <c r="S47" s="4"/>
+      <c r="T47" s="17"/>
+      <c r="U47" s="17">
+        <f>COUNTIF(J8:J19,"*GPS*")</f>
+        <v>0</v>
+      </c>
+      <c r="V47" s="19"/>
+    </row>
+    <row r="48" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>43</v>
+      </c>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="71"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="11"/>
+      <c r="S48" s="4"/>
+      <c r="T48" s="41">
+        <f>COUNTIF(J9:J20,"*GSM*")</f>
+        <v>0</v>
+      </c>
+      <c r="U48" s="42"/>
+      <c r="V48" s="43"/>
+    </row>
+    <row r="49" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>44</v>
+      </c>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="71"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="11"/>
+      <c r="S49" s="4"/>
+      <c r="T49" s="41"/>
+      <c r="U49" s="42"/>
+      <c r="V49" s="43"/>
+    </row>
+    <row r="50" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="35">
+        <v>45</v>
+      </c>
+      <c r="B50" s="36"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="84"/>
+      <c r="E50" s="37"/>
+      <c r="F50" s="84"/>
+      <c r="G50" s="84"/>
+      <c r="H50" s="38"/>
+      <c r="I50" s="74"/>
+      <c r="J50" s="38"/>
+      <c r="K50" s="38"/>
+      <c r="L50" s="38"/>
+      <c r="M50" s="38"/>
+      <c r="N50" s="38"/>
+      <c r="O50" s="38"/>
+      <c r="P50" s="38"/>
+      <c r="Q50" s="35"/>
+      <c r="R50" s="84"/>
+      <c r="S50" s="35"/>
+      <c r="T50" s="41"/>
+      <c r="U50" s="42"/>
+      <c r="V50" s="43"/>
+    </row>
+    <row r="51" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>46</v>
+      </c>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="71"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="11"/>
+      <c r="S51" s="11"/>
+      <c r="T51" s="41"/>
+      <c r="U51" s="42"/>
+      <c r="V51" s="43"/>
+    </row>
+    <row r="52" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>47</v>
+      </c>
+      <c r="B52" s="39"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="39"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="39"/>
+      <c r="I52" s="75"/>
+      <c r="J52" s="39"/>
+      <c r="K52" s="39"/>
+      <c r="L52" s="40"/>
+      <c r="M52" s="39"/>
+      <c r="N52" s="39"/>
+      <c r="O52" s="39"/>
+      <c r="P52" s="39"/>
+      <c r="Q52" s="39"/>
+      <c r="R52" s="39"/>
+      <c r="S52" s="39"/>
+      <c r="T52" s="41"/>
+      <c r="U52" s="42"/>
+      <c r="V52" s="43"/>
+    </row>
+    <row r="53" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>48</v>
+      </c>
+      <c r="B53" s="39"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="39"/>
+      <c r="I53" s="75"/>
+      <c r="J53" s="39"/>
+      <c r="K53" s="39"/>
+      <c r="L53" s="40"/>
+      <c r="M53" s="39"/>
+      <c r="N53" s="22"/>
+      <c r="O53" s="22"/>
+      <c r="P53" s="39"/>
+      <c r="Q53" s="39"/>
+      <c r="R53" s="39"/>
+      <c r="S53" s="39"/>
+      <c r="T53" s="41"/>
+      <c r="U53" s="42"/>
+      <c r="V53" s="43"/>
+    </row>
+    <row r="54" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>49</v>
+      </c>
+      <c r="B54" s="39"/>
+      <c r="C54" s="39"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="39"/>
+      <c r="F54" s="39"/>
+      <c r="G54" s="39"/>
+      <c r="H54" s="39"/>
+      <c r="I54" s="75"/>
+      <c r="J54" s="39"/>
+      <c r="K54" s="39"/>
+      <c r="L54" s="40"/>
+      <c r="M54" s="39"/>
+      <c r="N54" s="22"/>
+      <c r="O54" s="22"/>
+      <c r="P54" s="39"/>
+      <c r="Q54" s="39"/>
+      <c r="R54" s="39"/>
+      <c r="S54" s="39"/>
+      <c r="T54" s="41"/>
+      <c r="U54" s="42"/>
+      <c r="V54" s="43"/>
+    </row>
+    <row r="55" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <v>50</v>
+      </c>
+      <c r="B55" s="39"/>
+      <c r="C55" s="39"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="39"/>
+      <c r="F55" s="39"/>
+      <c r="G55" s="39"/>
+      <c r="H55" s="39"/>
+      <c r="I55" s="75"/>
+      <c r="J55" s="39"/>
+      <c r="K55" s="39"/>
+      <c r="L55" s="40"/>
+      <c r="M55" s="39"/>
+      <c r="N55" s="22"/>
+      <c r="O55" s="22"/>
+      <c r="P55" s="39"/>
+      <c r="Q55" s="39"/>
+      <c r="R55" s="39"/>
+      <c r="S55" s="39"/>
+      <c r="T55" s="44"/>
+      <c r="U55" s="45"/>
+      <c r="V55" s="46"/>
+    </row>
+    <row r="56" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U56" s="29"/>
+      <c r="V56" s="29"/>
+    </row>
+    <row r="57" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U57" s="29"/>
+      <c r="V57" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V57"/>
+  <sheetViews>
+    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="23" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="23" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="23" customWidth="1"/>
+    <col min="7" max="7" width="17" style="23" customWidth="1"/>
+    <col min="8" max="8" width="35.42578125" style="23" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="77" customWidth="1"/>
+    <col min="10" max="10" width="53" style="23" customWidth="1"/>
+    <col min="11" max="11" width="33.42578125" style="23" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" style="30" customWidth="1"/>
+    <col min="13" max="13" width="58" style="23" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" style="23" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="23" customWidth="1"/>
+    <col min="16" max="16" width="37.7109375" style="23" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" style="23" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" style="23" customWidth="1"/>
+    <col min="19" max="19" width="26.85546875" style="23" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="23"/>
+    <col min="21" max="21" width="30.5703125" style="23" customWidth="1"/>
+    <col min="22" max="22" width="21.42578125" style="23" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="87" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
+    </row>
+    <row r="2" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="88" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="90"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="32"/>
+    </row>
+    <row r="3" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="31"/>
+      <c r="V3" s="32"/>
+    </row>
+    <row r="4" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="86"/>
+      <c r="M4" s="92" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" s="92" t="s">
+        <v>11</v>
+      </c>
+      <c r="O4" s="86" t="s">
+        <v>8</v>
+      </c>
+      <c r="P4" s="97" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="86" t="s">
+        <v>40</v>
+      </c>
+      <c r="R4" s="86" t="s">
+        <v>62</v>
+      </c>
+      <c r="S4" s="98" t="s">
+        <v>63</v>
+      </c>
+      <c r="T4" s="31"/>
+      <c r="U4" s="86" t="s">
+        <v>40</v>
+      </c>
+      <c r="V4" s="86" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1325,7 +3059,7 @@
       <c r="I5" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="85"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="80" t="s">
         <v>13</v>
       </c>
@@ -1334,14 +3068,14 @@
       </c>
       <c r="M5" s="93"/>
       <c r="N5" s="93"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="97"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="98"/>
       <c r="T5" s="31"/>
-      <c r="U5" s="85"/>
-      <c r="V5" s="85"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
     </row>
     <row r="6" spans="1:22" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1351,7 +3085,7 @@
         <v>44212</v>
       </c>
       <c r="C6" s="55">
-        <v>44214</v>
+        <v>44217</v>
       </c>
       <c r="D6" s="56" t="s">
         <v>45</v>
@@ -1361,21 +3095,23 @@
       </c>
       <c r="F6" s="56"/>
       <c r="G6" s="56" t="s">
-        <v>69</v>
-      </c>
-      <c r="H6" s="56"/>
-      <c r="I6" s="99" t="s">
-        <v>84</v>
+        <v>76</v>
+      </c>
+      <c r="H6" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="I6" s="81" t="s">
+        <v>83</v>
       </c>
       <c r="J6" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K6" s="61"/>
       <c r="L6" s="58" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M6" s="58" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N6" s="60"/>
       <c r="O6" s="58" t="s">
@@ -1388,11 +3124,11 @@
         <v>73</v>
       </c>
       <c r="R6" s="56" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="79"/>
-      <c r="U6" s="81" t="s">
+      <c r="U6" s="94" t="s">
         <v>19</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1422,7 +3158,7 @@
       <c r="R7" s="56"/>
       <c r="S7" s="4"/>
       <c r="T7" s="79"/>
-      <c r="U7" s="82"/>
+      <c r="U7" s="95"/>
       <c r="V7" s="4" t="s">
         <v>36</v>
       </c>
@@ -1450,7 +3186,7 @@
       <c r="R8" s="56"/>
       <c r="S8" s="4"/>
       <c r="T8" s="79"/>
-      <c r="U8" s="82"/>
+      <c r="U8" s="95"/>
       <c r="V8" s="4" t="s">
         <v>22</v>
       </c>
@@ -1478,7 +3214,7 @@
       <c r="R9" s="56"/>
       <c r="S9" s="4"/>
       <c r="T9" s="79"/>
-      <c r="U9" s="82"/>
+      <c r="U9" s="95"/>
       <c r="V9" s="4" t="s">
         <v>60</v>
       </c>
@@ -1506,7 +3242,7 @@
       <c r="R10" s="56"/>
       <c r="S10" s="4"/>
       <c r="T10" s="79"/>
-      <c r="U10" s="82"/>
+      <c r="U10" s="95"/>
       <c r="V10" s="4" t="s">
         <v>32</v>
       </c>
@@ -1534,7 +3270,7 @@
       <c r="R11" s="56"/>
       <c r="S11" s="4"/>
       <c r="T11" s="79"/>
-      <c r="U11" s="82"/>
+      <c r="U11" s="95"/>
       <c r="V11" s="4" t="s">
         <v>31</v>
       </c>
@@ -1562,7 +3298,7 @@
       <c r="R12" s="56"/>
       <c r="S12" s="4"/>
       <c r="T12" s="79"/>
-      <c r="U12" s="81" t="s">
+      <c r="U12" s="94" t="s">
         <v>20</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1592,7 +3328,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="79"/>
-      <c r="U13" s="82"/>
+      <c r="U13" s="95"/>
       <c r="V13" s="4" t="s">
         <v>38</v>
       </c>
@@ -1620,7 +3356,7 @@
       <c r="R14" s="56"/>
       <c r="S14" s="4"/>
       <c r="T14" s="79"/>
-      <c r="U14" s="82"/>
+      <c r="U14" s="95"/>
       <c r="V14" s="4" t="s">
         <v>37</v>
       </c>
@@ -1648,7 +3384,7 @@
       <c r="R15" s="56"/>
       <c r="S15" s="4"/>
       <c r="T15" s="17"/>
-      <c r="U15" s="82"/>
+      <c r="U15" s="95"/>
       <c r="V15" s="4" t="s">
         <v>25</v>
       </c>
@@ -1676,7 +3412,7 @@
       <c r="R16" s="56"/>
       <c r="S16" s="4"/>
       <c r="T16" s="17"/>
-      <c r="U16" s="83"/>
+      <c r="U16" s="96"/>
       <c r="V16" s="4" t="s">
         <v>26</v>
       </c>
@@ -2834,12 +4570,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2954,50 +4690,50 @@
       <c r="A4" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="85" t="s">
+      <c r="K4" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="85"/>
+      <c r="L4" s="86"/>
       <c r="M4" s="92" t="s">
         <v>43</v>
       </c>
       <c r="N4" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="85" t="s">
+      <c r="O4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="84" t="s">
+      <c r="P4" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="85" t="s">
+      <c r="Q4" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="85" t="s">
+      <c r="R4" s="86" t="s">
         <v>62</v>
       </c>
-      <c r="S4" s="97" t="s">
+      <c r="S4" s="102" t="s">
         <v>66</v>
       </c>
       <c r="T4" s="31"/>
       <c r="U4" s="31"/>
-      <c r="V4" s="85" t="s">
+      <c r="V4" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="W4" s="85" t="s">
+      <c r="W4" s="86" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3027,7 +4763,7 @@
       <c r="I5" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="85"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="64" t="s">
         <v>13</v>
       </c>
@@ -3036,15 +4772,15 @@
       </c>
       <c r="M5" s="93"/>
       <c r="N5" s="93"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="98"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="97"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="103"/>
       <c r="T5" s="31"/>
       <c r="U5" s="31"/>
-      <c r="V5" s="85"/>
-      <c r="W5" s="85"/>
+      <c r="V5" s="86"/>
+      <c r="W5" s="86"/>
     </row>
     <row r="6" spans="1:23" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -3092,7 +4828,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="31"/>
       <c r="U6" s="63"/>
-      <c r="V6" s="81" t="s">
+      <c r="V6" s="94" t="s">
         <v>19</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -3120,10 +4856,10 @@
         <v>76</v>
       </c>
       <c r="H7" s="56" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="I7" s="58" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J7" s="58" t="s">
         <v>78</v>
@@ -3131,11 +4867,11 @@
       <c r="K7" s="1"/>
       <c r="L7" s="58"/>
       <c r="M7" s="58" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="58" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P7" s="58" t="s">
         <v>72</v>
@@ -3149,7 +4885,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="31"/>
       <c r="U7" s="63"/>
-      <c r="V7" s="82"/>
+      <c r="V7" s="95"/>
       <c r="W7" s="4" t="s">
         <v>36</v>
       </c>
@@ -3158,27 +4894,51 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="57"/>
+      <c r="B8" s="55">
+        <v>44216</v>
+      </c>
+      <c r="C8" s="55">
+        <v>44217</v>
+      </c>
+      <c r="D8" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="62" t="s">
+        <v>95</v>
+      </c>
       <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
+      <c r="G8" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" s="56" t="s">
+        <v>94</v>
+      </c>
       <c r="I8" s="58"/>
-      <c r="J8" s="58"/>
+      <c r="J8" s="58" t="s">
+        <v>78</v>
+      </c>
       <c r="K8" s="61"/>
       <c r="L8" s="58"/>
-      <c r="M8" s="58"/>
+      <c r="M8" s="58" t="s">
+        <v>96</v>
+      </c>
       <c r="N8" s="60"/>
-      <c r="O8" s="58"/>
-      <c r="P8" s="58"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="56"/>
+      <c r="O8" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="P8" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="56" t="s">
+        <v>31</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="31"/>
       <c r="U8" s="63"/>
-      <c r="V8" s="82"/>
+      <c r="V8" s="95"/>
       <c r="W8" s="4" t="s">
         <v>22</v>
       </c>
@@ -3207,7 +4967,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="63"/>
       <c r="U9" s="63"/>
-      <c r="V9" s="82"/>
+      <c r="V9" s="95"/>
       <c r="W9" s="4" t="s">
         <v>60</v>
       </c>
@@ -3236,7 +4996,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="63"/>
       <c r="U10" s="63"/>
-      <c r="V10" s="82"/>
+      <c r="V10" s="95"/>
       <c r="W10" s="4" t="s">
         <v>32</v>
       </c>
@@ -3265,7 +5025,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="63"/>
       <c r="U11" s="63"/>
-      <c r="V11" s="82"/>
+      <c r="V11" s="95"/>
       <c r="W11" s="4" t="s">
         <v>31</v>
       </c>
@@ -3294,7 +5054,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="63"/>
       <c r="U12" s="63"/>
-      <c r="V12" s="81" t="s">
+      <c r="V12" s="94" t="s">
         <v>20</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -3325,7 +5085,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="63"/>
       <c r="U13" s="63"/>
-      <c r="V13" s="82"/>
+      <c r="V13" s="95"/>
       <c r="W13" s="4" t="s">
         <v>38</v>
       </c>
@@ -3354,7 +5114,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="63"/>
       <c r="U14" s="63"/>
-      <c r="V14" s="82"/>
+      <c r="V14" s="95"/>
       <c r="W14" s="4" t="s">
         <v>37</v>
       </c>
@@ -3383,7 +5143,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="63"/>
       <c r="U15" s="17"/>
-      <c r="V15" s="82"/>
+      <c r="V15" s="95"/>
       <c r="W15" s="4" t="s">
         <v>25</v>
       </c>
@@ -3412,7 +5172,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="63"/>
       <c r="U16" s="17"/>
-      <c r="V16" s="83"/>
+      <c r="V16" s="96"/>
       <c r="W16" s="4" t="s">
         <v>26</v>
       </c>
@@ -3563,7 +5323,7 @@
       </c>
       <c r="W21" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PC")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3872,7 +5632,7 @@
       </c>
       <c r="W31" s="11">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4064,7 +5824,7 @@
       </c>
       <c r="W37" s="11">
         <f>SUM(W26:W36)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4646,12 +6406,12 @@
       <c r="S56" s="39"/>
       <c r="T56" s="51"/>
       <c r="U56" s="53"/>
-      <c r="V56" s="94" t="s">
+      <c r="V56" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="W56" s="94">
+      <c r="W56" s="99">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4678,8 +6438,8 @@
       <c r="S57" s="39"/>
       <c r="T57" s="51"/>
       <c r="U57" s="53"/>
-      <c r="V57" s="95"/>
-      <c r="W57" s="95"/>
+      <c r="V57" s="100"/>
+      <c r="W57" s="100"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -4705,8 +6465,8 @@
       <c r="S58" s="39"/>
       <c r="T58" s="51"/>
       <c r="U58" s="53"/>
-      <c r="V58" s="96"/>
-      <c r="W58" s="96"/>
+      <c r="V58" s="101"/>
+      <c r="W58" s="101"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -6019,12 +7779,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V57"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6136,49 +7896,49 @@
       <c r="A4" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="85" t="s">
+      <c r="K4" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="85"/>
+      <c r="L4" s="86"/>
       <c r="M4" s="92" t="s">
         <v>43</v>
       </c>
       <c r="N4" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="85" t="s">
+      <c r="O4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="84" t="s">
+      <c r="P4" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="85" t="s">
+      <c r="Q4" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="85" t="s">
+      <c r="R4" s="86" t="s">
         <v>62</v>
       </c>
-      <c r="S4" s="86" t="s">
+      <c r="S4" s="98" t="s">
         <v>63</v>
       </c>
       <c r="T4" s="31"/>
-      <c r="U4" s="85" t="s">
+      <c r="U4" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="V4" s="85" t="s">
+      <c r="V4" s="86" t="s">
         <v>62</v>
       </c>
     </row>
@@ -6208,7 +7968,7 @@
       <c r="I5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="85"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="5" t="s">
         <v>13</v>
       </c>
@@ -6217,14 +7977,14 @@
       </c>
       <c r="M5" s="93"/>
       <c r="N5" s="93"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="97"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="98"/>
       <c r="T5" s="31"/>
-      <c r="U5" s="85"/>
-      <c r="V5" s="85"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
     </row>
     <row r="6" spans="1:22" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -6247,7 +8007,7 @@
         <v>69</v>
       </c>
       <c r="H6" s="56" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I6" s="61"/>
       <c r="J6" s="58" t="s">
@@ -6256,7 +8016,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="58"/>
       <c r="M6" s="58" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N6" s="60"/>
       <c r="O6" s="58" t="s">
@@ -6269,11 +8029,11 @@
         <v>73</v>
       </c>
       <c r="R6" s="56" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="14"/>
-      <c r="U6" s="81" t="s">
+      <c r="U6" s="94" t="s">
         <v>19</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -6303,7 +8063,7 @@
       <c r="R7" s="56"/>
       <c r="S7" s="4"/>
       <c r="T7" s="14"/>
-      <c r="U7" s="82"/>
+      <c r="U7" s="95"/>
       <c r="V7" s="4" t="s">
         <v>36</v>
       </c>
@@ -6331,7 +8091,7 @@
       <c r="R8" s="56"/>
       <c r="S8" s="4"/>
       <c r="T8" s="14"/>
-      <c r="U8" s="82"/>
+      <c r="U8" s="95"/>
       <c r="V8" s="4" t="s">
         <v>22</v>
       </c>
@@ -6359,7 +8119,7 @@
       <c r="R9" s="56"/>
       <c r="S9" s="4"/>
       <c r="T9" s="24"/>
-      <c r="U9" s="82"/>
+      <c r="U9" s="95"/>
       <c r="V9" s="4" t="s">
         <v>60</v>
       </c>
@@ -6387,7 +8147,7 @@
       <c r="R10" s="56"/>
       <c r="S10" s="4"/>
       <c r="T10" s="33"/>
-      <c r="U10" s="82"/>
+      <c r="U10" s="95"/>
       <c r="V10" s="4" t="s">
         <v>32</v>
       </c>
@@ -6415,7 +8175,7 @@
       <c r="R11" s="56"/>
       <c r="S11" s="4"/>
       <c r="T11" s="14"/>
-      <c r="U11" s="82"/>
+      <c r="U11" s="95"/>
       <c r="V11" s="4" t="s">
         <v>31</v>
       </c>
@@ -6443,7 +8203,7 @@
       <c r="R12" s="56"/>
       <c r="S12" s="4"/>
       <c r="T12" s="14"/>
-      <c r="U12" s="81" t="s">
+      <c r="U12" s="94" t="s">
         <v>20</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -6473,7 +8233,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="14"/>
-      <c r="U13" s="82"/>
+      <c r="U13" s="95"/>
       <c r="V13" s="4" t="s">
         <v>38</v>
       </c>
@@ -6501,7 +8261,7 @@
       <c r="R14" s="56"/>
       <c r="S14" s="4"/>
       <c r="T14" s="14"/>
-      <c r="U14" s="82"/>
+      <c r="U14" s="95"/>
       <c r="V14" s="4" t="s">
         <v>37</v>
       </c>
@@ -6529,7 +8289,7 @@
       <c r="R15" s="56"/>
       <c r="S15" s="4"/>
       <c r="T15" s="17"/>
-      <c r="U15" s="82"/>
+      <c r="U15" s="95"/>
       <c r="V15" s="4" t="s">
         <v>25</v>
       </c>
@@ -6557,7 +8317,7 @@
       <c r="R16" s="56"/>
       <c r="S16" s="4"/>
       <c r="T16" s="17"/>
-      <c r="U16" s="83"/>
+      <c r="U16" s="96"/>
       <c r="V16" s="4" t="s">
         <v>26</v>
       </c>
@@ -7715,7 +9475,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
@@ -7835,50 +9595,50 @@
       <c r="A4" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="85" t="s">
+      <c r="K4" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="85"/>
+      <c r="L4" s="86"/>
       <c r="M4" s="92" t="s">
         <v>43</v>
       </c>
       <c r="N4" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="85" t="s">
+      <c r="O4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="84" t="s">
+      <c r="P4" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="85" t="s">
+      <c r="Q4" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="85" t="s">
+      <c r="R4" s="86" t="s">
         <v>62</v>
       </c>
-      <c r="S4" s="97" t="s">
+      <c r="S4" s="102" t="s">
         <v>66</v>
       </c>
       <c r="T4" s="31"/>
       <c r="U4" s="31"/>
-      <c r="V4" s="85" t="s">
+      <c r="V4" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="W4" s="85" t="s">
+      <c r="W4" s="86" t="s">
         <v>62</v>
       </c>
     </row>
@@ -7903,12 +9663,12 @@
         <v>5</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I5" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="85"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="5" t="s">
         <v>13</v>
       </c>
@@ -7917,15 +9677,15 @@
       </c>
       <c r="M5" s="93"/>
       <c r="N5" s="93"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="98"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="97"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="103"/>
       <c r="T5" s="31"/>
       <c r="U5" s="31"/>
-      <c r="V5" s="85"/>
-      <c r="W5" s="85"/>
+      <c r="V5" s="86"/>
+      <c r="W5" s="86"/>
     </row>
     <row r="6" spans="1:23" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -7946,14 +9706,14 @@
         <v>69</v>
       </c>
       <c r="H6" s="56" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I6" s="69" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J6" s="58"/>
       <c r="K6" s="61" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L6" s="58"/>
       <c r="M6" s="58"/>
@@ -7965,7 +9725,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="31"/>
       <c r="U6" s="33"/>
-      <c r="V6" s="81" t="s">
+      <c r="V6" s="94" t="s">
         <v>19</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -7996,7 +9756,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="31"/>
       <c r="U7" s="33"/>
-      <c r="V7" s="82"/>
+      <c r="V7" s="95"/>
       <c r="W7" s="4" t="s">
         <v>36</v>
       </c>
@@ -8025,7 +9785,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="31"/>
       <c r="U8" s="33"/>
-      <c r="V8" s="82"/>
+      <c r="V8" s="95"/>
       <c r="W8" s="4" t="s">
         <v>22</v>
       </c>
@@ -8054,7 +9814,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="33"/>
       <c r="U9" s="33"/>
-      <c r="V9" s="82"/>
+      <c r="V9" s="95"/>
       <c r="W9" s="4" t="s">
         <v>60</v>
       </c>
@@ -8083,7 +9843,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="33"/>
       <c r="U10" s="33"/>
-      <c r="V10" s="82"/>
+      <c r="V10" s="95"/>
       <c r="W10" s="4" t="s">
         <v>32</v>
       </c>
@@ -8112,7 +9872,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="33"/>
       <c r="U11" s="33"/>
-      <c r="V11" s="82"/>
+      <c r="V11" s="95"/>
       <c r="W11" s="4" t="s">
         <v>31</v>
       </c>
@@ -8141,7 +9901,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="33"/>
       <c r="U12" s="33"/>
-      <c r="V12" s="81" t="s">
+      <c r="V12" s="94" t="s">
         <v>20</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -8172,7 +9932,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="33"/>
       <c r="U13" s="33"/>
-      <c r="V13" s="82"/>
+      <c r="V13" s="95"/>
       <c r="W13" s="4" t="s">
         <v>38</v>
       </c>
@@ -8201,7 +9961,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="33"/>
       <c r="U14" s="33"/>
-      <c r="V14" s="82"/>
+      <c r="V14" s="95"/>
       <c r="W14" s="4" t="s">
         <v>37</v>
       </c>
@@ -8230,7 +9990,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="33"/>
       <c r="U15" s="17"/>
-      <c r="V15" s="82"/>
+      <c r="V15" s="95"/>
       <c r="W15" s="4" t="s">
         <v>25</v>
       </c>
@@ -8259,7 +10019,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="33"/>
       <c r="U16" s="17"/>
-      <c r="V16" s="83"/>
+      <c r="V16" s="96"/>
       <c r="W16" s="4" t="s">
         <v>26</v>
       </c>
@@ -9493,10 +11253,10 @@
       <c r="S56" s="39"/>
       <c r="T56" s="51"/>
       <c r="U56" s="53"/>
-      <c r="V56" s="94" t="s">
+      <c r="V56" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="W56" s="94">
+      <c r="W56" s="99">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -9525,8 +11285,8 @@
       <c r="S57" s="39"/>
       <c r="T57" s="51"/>
       <c r="U57" s="53"/>
-      <c r="V57" s="95"/>
-      <c r="W57" s="95"/>
+      <c r="V57" s="100"/>
+      <c r="W57" s="100"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -9552,8 +11312,8 @@
       <c r="S58" s="39"/>
       <c r="T58" s="51"/>
       <c r="U58" s="53"/>
-      <c r="V58" s="96"/>
-      <c r="W58" s="96"/>
+      <c r="V58" s="101"/>
+      <c r="W58" s="101"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang1/02.XuLyBH/XLBH2101_KimLong.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang1/02.XuLyBH/XLBH2101_KimLong.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="106">
   <si>
     <t>STT</t>
   </si>
@@ -343,6 +343,21 @@
   </si>
   <si>
     <t>Hàn lại khay sim</t>
+  </si>
+  <si>
+    <t>Thiết bị không hiển thị nhiệt dộ</t>
+  </si>
+  <si>
+    <t>Thiết bị có dấu hiệu oxi hóa mạch, không lên nguồn</t>
+  </si>
+  <si>
+    <t>Hàn lại khối nguồn 4,4v</t>
+  </si>
+  <si>
+    <t>LK,NG</t>
+  </si>
+  <si>
+    <t>Xử lý phần cứng</t>
   </si>
 </sst>
 </file>
@@ -816,7 +831,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -838,21 +868,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1208,42 +1223,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="92" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
     </row>
     <row r="2" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90" t="s">
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="95" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="90"/>
+      <c r="F2" s="95"/>
       <c r="G2" s="6"/>
       <c r="H2" s="25"/>
       <c r="I2" s="66"/>
@@ -1286,57 +1301,57 @@
       <c r="V3" s="32"/>
     </row>
     <row r="4" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="92" t="s">
+      <c r="L4" s="90"/>
+      <c r="M4" s="97" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="92" t="s">
+      <c r="N4" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="86" t="s">
+      <c r="O4" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="97" t="s">
+      <c r="P4" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="86" t="s">
+      <c r="Q4" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="86" t="s">
+      <c r="R4" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="S4" s="98" t="s">
+      <c r="S4" s="91" t="s">
         <v>63</v>
       </c>
       <c r="T4" s="31"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="90" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="96"/>
       <c r="B5" s="83" t="s">
         <v>1</v>
       </c>
@@ -1361,23 +1376,23 @@
       <c r="I5" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="90"/>
       <c r="K5" s="83" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="93"/>
-      <c r="N5" s="93"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="97"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="98"/>
+      <c r="M5" s="98"/>
+      <c r="N5" s="98"/>
+      <c r="O5" s="90"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="90"/>
+      <c r="R5" s="90"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="31"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="90"/>
+      <c r="V5" s="90"/>
     </row>
     <row r="6" spans="1:22" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1428,7 +1443,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="82"/>
-      <c r="U6" s="94" t="s">
+      <c r="U6" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1458,7 +1473,7 @@
       <c r="R7" s="56"/>
       <c r="S7" s="4"/>
       <c r="T7" s="82"/>
-      <c r="U7" s="95"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="4" t="s">
         <v>36</v>
       </c>
@@ -1486,7 +1501,7 @@
       <c r="R8" s="56"/>
       <c r="S8" s="4"/>
       <c r="T8" s="82"/>
-      <c r="U8" s="95"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="4" t="s">
         <v>22</v>
       </c>
@@ -1514,7 +1529,7 @@
       <c r="R9" s="56"/>
       <c r="S9" s="4"/>
       <c r="T9" s="82"/>
-      <c r="U9" s="95"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="4" t="s">
         <v>60</v>
       </c>
@@ -1542,7 +1557,7 @@
       <c r="R10" s="56"/>
       <c r="S10" s="4"/>
       <c r="T10" s="82"/>
-      <c r="U10" s="95"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="4" t="s">
         <v>32</v>
       </c>
@@ -1570,7 +1585,7 @@
       <c r="R11" s="56"/>
       <c r="S11" s="4"/>
       <c r="T11" s="82"/>
-      <c r="U11" s="95"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="4" t="s">
         <v>31</v>
       </c>
@@ -1598,7 +1613,7 @@
       <c r="R12" s="56"/>
       <c r="S12" s="4"/>
       <c r="T12" s="82"/>
-      <c r="U12" s="94" t="s">
+      <c r="U12" s="86" t="s">
         <v>20</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1628,7 +1643,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="82"/>
-      <c r="U13" s="95"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="4" t="s">
         <v>38</v>
       </c>
@@ -1656,7 +1671,7 @@
       <c r="R14" s="56"/>
       <c r="S14" s="4"/>
       <c r="T14" s="82"/>
-      <c r="U14" s="95"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="4" t="s">
         <v>37</v>
       </c>
@@ -1684,7 +1699,7 @@
       <c r="R15" s="56"/>
       <c r="S15" s="4"/>
       <c r="T15" s="17"/>
-      <c r="U15" s="95"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="4" t="s">
         <v>25</v>
       </c>
@@ -1712,7 +1727,7 @@
       <c r="R16" s="56"/>
       <c r="S16" s="4"/>
       <c r="T16" s="17"/>
-      <c r="U16" s="96"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="4" t="s">
         <v>26</v>
       </c>
@@ -2846,13 +2861,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2864,6 +2872,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2875,7 +2890,7 @@
   <dimension ref="A1:V57"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2906,42 +2921,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="92" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
     </row>
     <row r="2" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90" t="s">
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="95" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="90"/>
+      <c r="F2" s="95"/>
       <c r="G2" s="6"/>
       <c r="H2" s="25"/>
       <c r="I2" s="66"/>
@@ -2984,57 +2999,57 @@
       <c r="V3" s="32"/>
     </row>
     <row r="4" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="92" t="s">
+      <c r="L4" s="90"/>
+      <c r="M4" s="97" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="92" t="s">
+      <c r="N4" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="86" t="s">
+      <c r="O4" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="97" t="s">
+      <c r="P4" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="86" t="s">
+      <c r="Q4" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="86" t="s">
+      <c r="R4" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="S4" s="98" t="s">
+      <c r="S4" s="91" t="s">
         <v>63</v>
       </c>
       <c r="T4" s="31"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="90" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="96"/>
       <c r="B5" s="80" t="s">
         <v>1</v>
       </c>
@@ -3059,23 +3074,23 @@
       <c r="I5" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="90"/>
       <c r="K5" s="80" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="93"/>
-      <c r="N5" s="93"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="97"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="98"/>
+      <c r="M5" s="98"/>
+      <c r="N5" s="98"/>
+      <c r="O5" s="90"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="90"/>
+      <c r="R5" s="90"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="31"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="90"/>
+      <c r="V5" s="90"/>
     </row>
     <row r="6" spans="1:22" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -3128,7 +3143,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="79"/>
-      <c r="U6" s="94" t="s">
+      <c r="U6" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3139,26 +3154,52 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="57"/>
+      <c r="B7" s="55">
+        <v>44225</v>
+      </c>
+      <c r="C7" s="55">
+        <v>44225</v>
+      </c>
+      <c r="D7" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="57">
+        <v>868183034775523</v>
+      </c>
       <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="1"/>
+      <c r="G7" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" s="85"/>
+      <c r="I7" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" s="58" t="s">
+        <v>102</v>
+      </c>
+      <c r="K7" s="58" t="s">
+        <v>82</v>
+      </c>
       <c r="L7" s="58"/>
-      <c r="M7" s="58"/>
+      <c r="M7" s="58" t="s">
+        <v>103</v>
+      </c>
       <c r="N7" s="3"/>
-      <c r="O7" s="58"/>
-      <c r="P7" s="58"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="56"/>
+      <c r="O7" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="P7" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="56" t="s">
+        <v>104</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="79"/>
-      <c r="U7" s="95"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="4" t="s">
         <v>36</v>
       </c>
@@ -3186,7 +3227,7 @@
       <c r="R8" s="56"/>
       <c r="S8" s="4"/>
       <c r="T8" s="79"/>
-      <c r="U8" s="95"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="4" t="s">
         <v>22</v>
       </c>
@@ -3214,7 +3255,7 @@
       <c r="R9" s="56"/>
       <c r="S9" s="4"/>
       <c r="T9" s="79"/>
-      <c r="U9" s="95"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="4" t="s">
         <v>60</v>
       </c>
@@ -3242,7 +3283,7 @@
       <c r="R10" s="56"/>
       <c r="S10" s="4"/>
       <c r="T10" s="79"/>
-      <c r="U10" s="95"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="4" t="s">
         <v>32</v>
       </c>
@@ -3270,7 +3311,7 @@
       <c r="R11" s="56"/>
       <c r="S11" s="4"/>
       <c r="T11" s="79"/>
-      <c r="U11" s="95"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="4" t="s">
         <v>31</v>
       </c>
@@ -3298,7 +3339,7 @@
       <c r="R12" s="56"/>
       <c r="S12" s="4"/>
       <c r="T12" s="79"/>
-      <c r="U12" s="94" t="s">
+      <c r="U12" s="86" t="s">
         <v>20</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3328,7 +3369,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="79"/>
-      <c r="U13" s="95"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="4" t="s">
         <v>38</v>
       </c>
@@ -3356,7 +3397,7 @@
       <c r="R14" s="56"/>
       <c r="S14" s="4"/>
       <c r="T14" s="79"/>
-      <c r="U14" s="95"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="4" t="s">
         <v>37</v>
       </c>
@@ -3384,7 +3425,7 @@
       <c r="R15" s="56"/>
       <c r="S15" s="4"/>
       <c r="T15" s="17"/>
-      <c r="U15" s="95"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="4" t="s">
         <v>25</v>
       </c>
@@ -3412,7 +3453,7 @@
       <c r="R16" s="56"/>
       <c r="S16" s="4"/>
       <c r="T16" s="17"/>
-      <c r="U16" s="96"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="4" t="s">
         <v>26</v>
       </c>
@@ -3558,7 +3599,7 @@
       </c>
       <c r="V21" s="11">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3795,7 +3836,7 @@
       </c>
       <c r="V29" s="11">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3857,7 +3898,7 @@
       </c>
       <c r="V31" s="11">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4043,7 +4084,7 @@
       </c>
       <c r="V37" s="11">
         <f>SUM(V26:V36)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4546,6 +4587,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4557,13 +4605,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4574,8 +4615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4606,43 +4647,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="92" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
-      <c r="W1" s="87"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
+      <c r="W1" s="92"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90" t="s">
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="95" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="90"/>
+      <c r="F2" s="95"/>
       <c r="G2" s="6"/>
       <c r="H2" s="25"/>
       <c r="I2" s="25"/>
@@ -4687,42 +4728,42 @@
       <c r="W3" s="32"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="92" t="s">
+      <c r="L4" s="90"/>
+      <c r="M4" s="97" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="92" t="s">
+      <c r="N4" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="86" t="s">
+      <c r="O4" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="97" t="s">
+      <c r="P4" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="86" t="s">
+      <c r="Q4" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="86" t="s">
+      <c r="R4" s="90" t="s">
         <v>62</v>
       </c>
       <c r="S4" s="102" t="s">
@@ -4730,15 +4771,15 @@
       </c>
       <c r="T4" s="31"/>
       <c r="U4" s="31"/>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="W4" s="86" t="s">
+      <c r="W4" s="90" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="96"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -4763,24 +4804,24 @@
       <c r="I5" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="90"/>
       <c r="K5" s="64" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="93"/>
-      <c r="N5" s="93"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="97"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
+      <c r="M5" s="98"/>
+      <c r="N5" s="98"/>
+      <c r="O5" s="90"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="90"/>
+      <c r="R5" s="90"/>
       <c r="S5" s="103"/>
       <c r="T5" s="31"/>
       <c r="U5" s="31"/>
-      <c r="V5" s="86"/>
-      <c r="W5" s="86"/>
+      <c r="V5" s="90"/>
+      <c r="W5" s="90"/>
     </row>
     <row r="6" spans="1:23" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -4828,7 +4869,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="31"/>
       <c r="U6" s="63"/>
-      <c r="V6" s="94" t="s">
+      <c r="V6" s="86" t="s">
         <v>19</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -4885,7 +4926,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="31"/>
       <c r="U7" s="63"/>
-      <c r="V7" s="95"/>
+      <c r="V7" s="87"/>
       <c r="W7" s="4" t="s">
         <v>36</v>
       </c>
@@ -4938,7 +4979,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="31"/>
       <c r="U8" s="63"/>
-      <c r="V8" s="95"/>
+      <c r="V8" s="87"/>
       <c r="W8" s="4" t="s">
         <v>22</v>
       </c>
@@ -4947,27 +4988,47 @@
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="55"/>
+      <c r="B9" s="55">
+        <v>44225</v>
+      </c>
       <c r="C9" s="55"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="57"/>
+      <c r="D9" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="57">
+        <v>203</v>
+      </c>
       <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
+      <c r="G9" s="56" t="s">
+        <v>76</v>
+      </c>
       <c r="H9" s="56"/>
       <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
+      <c r="J9" s="58" t="s">
+        <v>101</v>
+      </c>
       <c r="K9" s="1"/>
       <c r="L9" s="61"/>
-      <c r="M9" s="58"/>
+      <c r="M9" s="58" t="s">
+        <v>105</v>
+      </c>
       <c r="N9" s="3"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="58"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="61"/>
+      <c r="O9" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="P9" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="61" t="s">
+        <v>32</v>
+      </c>
       <c r="S9" s="4"/>
       <c r="T9" s="63"/>
       <c r="U9" s="63"/>
-      <c r="V9" s="95"/>
+      <c r="V9" s="87"/>
       <c r="W9" s="4" t="s">
         <v>60</v>
       </c>
@@ -4996,7 +5057,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="63"/>
       <c r="U10" s="63"/>
-      <c r="V10" s="95"/>
+      <c r="V10" s="87"/>
       <c r="W10" s="4" t="s">
         <v>32</v>
       </c>
@@ -5025,7 +5086,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="63"/>
       <c r="U11" s="63"/>
-      <c r="V11" s="95"/>
+      <c r="V11" s="87"/>
       <c r="W11" s="4" t="s">
         <v>31</v>
       </c>
@@ -5054,7 +5115,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="63"/>
       <c r="U12" s="63"/>
-      <c r="V12" s="94" t="s">
+      <c r="V12" s="86" t="s">
         <v>20</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -5085,7 +5146,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="63"/>
       <c r="U13" s="63"/>
-      <c r="V13" s="95"/>
+      <c r="V13" s="87"/>
       <c r="W13" s="4" t="s">
         <v>38</v>
       </c>
@@ -5114,7 +5175,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="63"/>
       <c r="U14" s="63"/>
-      <c r="V14" s="95"/>
+      <c r="V14" s="87"/>
       <c r="W14" s="4" t="s">
         <v>37</v>
       </c>
@@ -5143,7 +5204,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="63"/>
       <c r="U15" s="17"/>
-      <c r="V15" s="95"/>
+      <c r="V15" s="87"/>
       <c r="W15" s="4" t="s">
         <v>25</v>
       </c>
@@ -5172,7 +5233,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="63"/>
       <c r="U16" s="17"/>
-      <c r="V16" s="96"/>
+      <c r="V16" s="88"/>
       <c r="W16" s="4" t="s">
         <v>26</v>
       </c>
@@ -5323,7 +5384,7 @@
       </c>
       <c r="W21" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PC")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5600,7 +5661,7 @@
       </c>
       <c r="W30" s="11">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5824,7 +5885,7 @@
       </c>
       <c r="W37" s="11">
         <f>SUM(W26:W36)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6411,7 +6472,7 @@
       </c>
       <c r="W56" s="99">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7753,6 +7814,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -7763,16 +7834,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7815,42 +7876,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="92" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
     </row>
     <row r="2" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90" t="s">
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="95" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="90"/>
+      <c r="F2" s="95"/>
       <c r="G2" s="6"/>
       <c r="H2" s="25"/>
       <c r="I2" s="25"/>
@@ -7893,57 +7954,57 @@
       <c r="V3" s="32"/>
     </row>
     <row r="4" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="92" t="s">
+      <c r="L4" s="90"/>
+      <c r="M4" s="97" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="92" t="s">
+      <c r="N4" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="86" t="s">
+      <c r="O4" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="97" t="s">
+      <c r="P4" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="86" t="s">
+      <c r="Q4" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="86" t="s">
+      <c r="R4" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="S4" s="98" t="s">
+      <c r="S4" s="91" t="s">
         <v>63</v>
       </c>
       <c r="T4" s="31"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="90" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="96"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -7968,23 +8029,23 @@
       <c r="I5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="90"/>
       <c r="K5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="93"/>
-      <c r="N5" s="93"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="97"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="98"/>
+      <c r="M5" s="98"/>
+      <c r="N5" s="98"/>
+      <c r="O5" s="90"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="90"/>
+      <c r="R5" s="90"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="31"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="90"/>
+      <c r="V5" s="90"/>
     </row>
     <row r="6" spans="1:22" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -8033,7 +8094,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="14"/>
-      <c r="U6" s="94" t="s">
+      <c r="U6" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -8063,7 +8124,7 @@
       <c r="R7" s="56"/>
       <c r="S7" s="4"/>
       <c r="T7" s="14"/>
-      <c r="U7" s="95"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="4" t="s">
         <v>36</v>
       </c>
@@ -8091,7 +8152,7 @@
       <c r="R8" s="56"/>
       <c r="S8" s="4"/>
       <c r="T8" s="14"/>
-      <c r="U8" s="95"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="4" t="s">
         <v>22</v>
       </c>
@@ -8119,7 +8180,7 @@
       <c r="R9" s="56"/>
       <c r="S9" s="4"/>
       <c r="T9" s="24"/>
-      <c r="U9" s="95"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="4" t="s">
         <v>60</v>
       </c>
@@ -8147,7 +8208,7 @@
       <c r="R10" s="56"/>
       <c r="S10" s="4"/>
       <c r="T10" s="33"/>
-      <c r="U10" s="95"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="4" t="s">
         <v>32</v>
       </c>
@@ -8175,7 +8236,7 @@
       <c r="R11" s="56"/>
       <c r="S11" s="4"/>
       <c r="T11" s="14"/>
-      <c r="U11" s="95"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="4" t="s">
         <v>31</v>
       </c>
@@ -8203,7 +8264,7 @@
       <c r="R12" s="56"/>
       <c r="S12" s="4"/>
       <c r="T12" s="14"/>
-      <c r="U12" s="94" t="s">
+      <c r="U12" s="86" t="s">
         <v>20</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -8233,7 +8294,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="14"/>
-      <c r="U13" s="95"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="4" t="s">
         <v>38</v>
       </c>
@@ -8261,7 +8322,7 @@
       <c r="R14" s="56"/>
       <c r="S14" s="4"/>
       <c r="T14" s="14"/>
-      <c r="U14" s="95"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="4" t="s">
         <v>37</v>
       </c>
@@ -8289,7 +8350,7 @@
       <c r="R15" s="56"/>
       <c r="S15" s="4"/>
       <c r="T15" s="17"/>
-      <c r="U15" s="95"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="4" t="s">
         <v>25</v>
       </c>
@@ -8317,7 +8378,7 @@
       <c r="R16" s="56"/>
       <c r="S16" s="4"/>
       <c r="T16" s="17"/>
-      <c r="U16" s="96"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="4" t="s">
         <v>26</v>
       </c>
@@ -9451,6 +9512,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="P4:P5"/>
@@ -9464,11 +9530,6 @@
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9511,43 +9572,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="92" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
-      <c r="W1" s="87"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
+      <c r="W1" s="92"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90" t="s">
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="95" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="90"/>
+      <c r="F2" s="95"/>
       <c r="G2" s="6"/>
       <c r="H2" s="25"/>
       <c r="I2" s="66"/>
@@ -9592,42 +9653,42 @@
       <c r="W3" s="32"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="92" t="s">
+      <c r="L4" s="90"/>
+      <c r="M4" s="97" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="92" t="s">
+      <c r="N4" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="86" t="s">
+      <c r="O4" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="97" t="s">
+      <c r="P4" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="86" t="s">
+      <c r="Q4" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="86" t="s">
+      <c r="R4" s="90" t="s">
         <v>62</v>
       </c>
       <c r="S4" s="102" t="s">
@@ -9635,15 +9696,15 @@
       </c>
       <c r="T4" s="31"/>
       <c r="U4" s="31"/>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="W4" s="86" t="s">
+      <c r="W4" s="90" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="96"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -9668,24 +9729,24 @@
       <c r="I5" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="90"/>
       <c r="K5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="93"/>
-      <c r="N5" s="93"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="97"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
+      <c r="M5" s="98"/>
+      <c r="N5" s="98"/>
+      <c r="O5" s="90"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="90"/>
+      <c r="R5" s="90"/>
       <c r="S5" s="103"/>
       <c r="T5" s="31"/>
       <c r="U5" s="31"/>
-      <c r="V5" s="86"/>
-      <c r="W5" s="86"/>
+      <c r="V5" s="90"/>
+      <c r="W5" s="90"/>
     </row>
     <row r="6" spans="1:23" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -9725,7 +9786,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="31"/>
       <c r="U6" s="33"/>
-      <c r="V6" s="94" t="s">
+      <c r="V6" s="86" t="s">
         <v>19</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -9756,7 +9817,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="31"/>
       <c r="U7" s="33"/>
-      <c r="V7" s="95"/>
+      <c r="V7" s="87"/>
       <c r="W7" s="4" t="s">
         <v>36</v>
       </c>
@@ -9785,7 +9846,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="31"/>
       <c r="U8" s="33"/>
-      <c r="V8" s="95"/>
+      <c r="V8" s="87"/>
       <c r="W8" s="4" t="s">
         <v>22</v>
       </c>
@@ -9814,7 +9875,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="33"/>
       <c r="U9" s="33"/>
-      <c r="V9" s="95"/>
+      <c r="V9" s="87"/>
       <c r="W9" s="4" t="s">
         <v>60</v>
       </c>
@@ -9843,7 +9904,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="33"/>
       <c r="U10" s="33"/>
-      <c r="V10" s="95"/>
+      <c r="V10" s="87"/>
       <c r="W10" s="4" t="s">
         <v>32</v>
       </c>
@@ -9872,7 +9933,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="33"/>
       <c r="U11" s="33"/>
-      <c r="V11" s="95"/>
+      <c r="V11" s="87"/>
       <c r="W11" s="4" t="s">
         <v>31</v>
       </c>
@@ -9901,7 +9962,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="33"/>
       <c r="U12" s="33"/>
-      <c r="V12" s="94" t="s">
+      <c r="V12" s="86" t="s">
         <v>20</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -9932,7 +9993,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="33"/>
       <c r="U13" s="33"/>
-      <c r="V13" s="95"/>
+      <c r="V13" s="87"/>
       <c r="W13" s="4" t="s">
         <v>38</v>
       </c>
@@ -9961,7 +10022,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="33"/>
       <c r="U14" s="33"/>
-      <c r="V14" s="95"/>
+      <c r="V14" s="87"/>
       <c r="W14" s="4" t="s">
         <v>37</v>
       </c>
@@ -9990,7 +10051,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="33"/>
       <c r="U15" s="17"/>
-      <c r="V15" s="95"/>
+      <c r="V15" s="87"/>
       <c r="W15" s="4" t="s">
         <v>25</v>
       </c>
@@ -10019,7 +10080,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="33"/>
       <c r="U16" s="17"/>
-      <c r="V16" s="96"/>
+      <c r="V16" s="88"/>
       <c r="W16" s="4" t="s">
         <v>26</v>
       </c>
@@ -12600,6 +12661,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -12610,16 +12681,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang1/02.XuLyBH/XLBH2101_KimLong.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang1/02.XuLyBH/XLBH2101_KimLong.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TG102SE" sheetId="25" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="106">
   <si>
     <t>STT</t>
   </si>
@@ -831,22 +831,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -868,6 +853,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1191,8 +1191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showZeros="0" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1223,42 +1223,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
-      <c r="O1" s="92"/>
-      <c r="P1" s="92"/>
-      <c r="Q1" s="92"/>
-      <c r="R1" s="92"/>
-      <c r="S1" s="92"/>
-      <c r="T1" s="92"/>
-      <c r="U1" s="92"/>
-      <c r="V1" s="92"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
     </row>
     <row r="2" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="95" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="95"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="6"/>
       <c r="H2" s="25"/>
       <c r="I2" s="66"/>
@@ -1301,57 +1301,57 @@
       <c r="V3" s="32"/>
     </row>
     <row r="4" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="90" t="s">
+      <c r="K4" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="90"/>
-      <c r="M4" s="97" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="97" t="s">
+      <c r="N4" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="90" t="s">
+      <c r="O4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="90" t="s">
+      <c r="Q4" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="90" t="s">
+      <c r="R4" s="86" t="s">
         <v>62</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="98" t="s">
         <v>63</v>
       </c>
       <c r="T4" s="31"/>
-      <c r="U4" s="90" t="s">
+      <c r="U4" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="V4" s="90" t="s">
+      <c r="V4" s="86" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="96"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="83" t="s">
         <v>1</v>
       </c>
@@ -1376,23 +1376,23 @@
       <c r="I5" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="90"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="83" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="98"/>
-      <c r="N5" s="98"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="90"/>
-      <c r="R5" s="90"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="93"/>
+      <c r="N5" s="93"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="97"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="98"/>
       <c r="T5" s="31"/>
-      <c r="U5" s="90"/>
-      <c r="V5" s="90"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
     </row>
     <row r="6" spans="1:22" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="82"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="94" t="s">
         <v>19</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1473,7 +1473,7 @@
       <c r="R7" s="56"/>
       <c r="S7" s="4"/>
       <c r="T7" s="82"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="95"/>
       <c r="V7" s="4" t="s">
         <v>36</v>
       </c>
@@ -1501,7 +1501,7 @@
       <c r="R8" s="56"/>
       <c r="S8" s="4"/>
       <c r="T8" s="82"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="95"/>
       <c r="V8" s="4" t="s">
         <v>22</v>
       </c>
@@ -1529,7 +1529,7 @@
       <c r="R9" s="56"/>
       <c r="S9" s="4"/>
       <c r="T9" s="82"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="95"/>
       <c r="V9" s="4" t="s">
         <v>60</v>
       </c>
@@ -1557,7 +1557,7 @@
       <c r="R10" s="56"/>
       <c r="S10" s="4"/>
       <c r="T10" s="82"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="95"/>
       <c r="V10" s="4" t="s">
         <v>32</v>
       </c>
@@ -1585,7 +1585,7 @@
       <c r="R11" s="56"/>
       <c r="S11" s="4"/>
       <c r="T11" s="82"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="95"/>
       <c r="V11" s="4" t="s">
         <v>31</v>
       </c>
@@ -1613,7 +1613,7 @@
       <c r="R12" s="56"/>
       <c r="S12" s="4"/>
       <c r="T12" s="82"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="94" t="s">
         <v>20</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1643,7 +1643,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="82"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="95"/>
       <c r="V13" s="4" t="s">
         <v>38</v>
       </c>
@@ -1671,7 +1671,7 @@
       <c r="R14" s="56"/>
       <c r="S14" s="4"/>
       <c r="T14" s="82"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="95"/>
       <c r="V14" s="4" t="s">
         <v>37</v>
       </c>
@@ -1699,7 +1699,7 @@
       <c r="R15" s="56"/>
       <c r="S15" s="4"/>
       <c r="T15" s="17"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="95"/>
       <c r="V15" s="4" t="s">
         <v>25</v>
       </c>
@@ -1727,7 +1727,7 @@
       <c r="R16" s="56"/>
       <c r="S16" s="4"/>
       <c r="T16" s="17"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="96"/>
       <c r="V16" s="4" t="s">
         <v>26</v>
       </c>
@@ -2861,6 +2861,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2872,13 +2879,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2889,8 +2889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showZeros="0" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2921,42 +2921,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
-      <c r="O1" s="92"/>
-      <c r="P1" s="92"/>
-      <c r="Q1" s="92"/>
-      <c r="R1" s="92"/>
-      <c r="S1" s="92"/>
-      <c r="T1" s="92"/>
-      <c r="U1" s="92"/>
-      <c r="V1" s="92"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
     </row>
     <row r="2" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="95" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="95"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="6"/>
       <c r="H2" s="25"/>
       <c r="I2" s="66"/>
@@ -2999,57 +2999,57 @@
       <c r="V3" s="32"/>
     </row>
     <row r="4" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="90" t="s">
+      <c r="K4" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="90"/>
-      <c r="M4" s="97" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="97" t="s">
+      <c r="N4" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="90" t="s">
+      <c r="O4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="90" t="s">
+      <c r="Q4" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="90" t="s">
+      <c r="R4" s="86" t="s">
         <v>62</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="98" t="s">
         <v>63</v>
       </c>
       <c r="T4" s="31"/>
-      <c r="U4" s="90" t="s">
+      <c r="U4" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="V4" s="90" t="s">
+      <c r="V4" s="86" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="96"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="80" t="s">
         <v>1</v>
       </c>
@@ -3074,23 +3074,23 @@
       <c r="I5" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="90"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="80" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="98"/>
-      <c r="N5" s="98"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="90"/>
-      <c r="R5" s="90"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="93"/>
+      <c r="N5" s="93"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="97"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="98"/>
       <c r="T5" s="31"/>
-      <c r="U5" s="90"/>
-      <c r="V5" s="90"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
     </row>
     <row r="6" spans="1:22" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -3143,7 +3143,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="79"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="94" t="s">
         <v>19</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3199,7 +3199,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="79"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="95"/>
       <c r="V7" s="4" t="s">
         <v>36</v>
       </c>
@@ -3227,7 +3227,7 @@
       <c r="R8" s="56"/>
       <c r="S8" s="4"/>
       <c r="T8" s="79"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="95"/>
       <c r="V8" s="4" t="s">
         <v>22</v>
       </c>
@@ -3255,7 +3255,7 @@
       <c r="R9" s="56"/>
       <c r="S9" s="4"/>
       <c r="T9" s="79"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="95"/>
       <c r="V9" s="4" t="s">
         <v>60</v>
       </c>
@@ -3283,7 +3283,7 @@
       <c r="R10" s="56"/>
       <c r="S10" s="4"/>
       <c r="T10" s="79"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="95"/>
       <c r="V10" s="4" t="s">
         <v>32</v>
       </c>
@@ -3311,7 +3311,7 @@
       <c r="R11" s="56"/>
       <c r="S11" s="4"/>
       <c r="T11" s="79"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="95"/>
       <c r="V11" s="4" t="s">
         <v>31</v>
       </c>
@@ -3339,7 +3339,7 @@
       <c r="R12" s="56"/>
       <c r="S12" s="4"/>
       <c r="T12" s="79"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="94" t="s">
         <v>20</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3369,7 +3369,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="79"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="95"/>
       <c r="V13" s="4" t="s">
         <v>38</v>
       </c>
@@ -3397,7 +3397,7 @@
       <c r="R14" s="56"/>
       <c r="S14" s="4"/>
       <c r="T14" s="79"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="95"/>
       <c r="V14" s="4" t="s">
         <v>37</v>
       </c>
@@ -3425,7 +3425,7 @@
       <c r="R15" s="56"/>
       <c r="S15" s="4"/>
       <c r="T15" s="17"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="95"/>
       <c r="V15" s="4" t="s">
         <v>25</v>
       </c>
@@ -3453,7 +3453,7 @@
       <c r="R16" s="56"/>
       <c r="S16" s="4"/>
       <c r="T16" s="17"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="96"/>
       <c r="V16" s="4" t="s">
         <v>26</v>
       </c>
@@ -4587,13 +4587,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4605,6 +4598,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4615,8 +4615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4647,43 +4647,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
-      <c r="O1" s="92"/>
-      <c r="P1" s="92"/>
-      <c r="Q1" s="92"/>
-      <c r="R1" s="92"/>
-      <c r="S1" s="92"/>
-      <c r="T1" s="92"/>
-      <c r="U1" s="92"/>
-      <c r="V1" s="92"/>
-      <c r="W1" s="92"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
+      <c r="W1" s="87"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="95" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="95"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="6"/>
       <c r="H2" s="25"/>
       <c r="I2" s="25"/>
@@ -4728,42 +4728,42 @@
       <c r="W3" s="32"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="90" t="s">
+      <c r="K4" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="90"/>
-      <c r="M4" s="97" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="97" t="s">
+      <c r="N4" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="90" t="s">
+      <c r="O4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="90" t="s">
+      <c r="Q4" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="90" t="s">
+      <c r="R4" s="86" t="s">
         <v>62</v>
       </c>
       <c r="S4" s="102" t="s">
@@ -4771,15 +4771,15 @@
       </c>
       <c r="T4" s="31"/>
       <c r="U4" s="31"/>
-      <c r="V4" s="90" t="s">
+      <c r="V4" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="W4" s="90" t="s">
+      <c r="W4" s="86" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="96"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -4804,24 +4804,24 @@
       <c r="I5" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="90"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="64" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="98"/>
-      <c r="N5" s="98"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="90"/>
-      <c r="R5" s="90"/>
+      <c r="M5" s="93"/>
+      <c r="N5" s="93"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="97"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
       <c r="S5" s="103"/>
       <c r="T5" s="31"/>
       <c r="U5" s="31"/>
-      <c r="V5" s="90"/>
-      <c r="W5" s="90"/>
+      <c r="V5" s="86"/>
+      <c r="W5" s="86"/>
     </row>
     <row r="6" spans="1:23" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -4869,7 +4869,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="31"/>
       <c r="U6" s="63"/>
-      <c r="V6" s="86" t="s">
+      <c r="V6" s="94" t="s">
         <v>19</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -4926,7 +4926,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="31"/>
       <c r="U7" s="63"/>
-      <c r="V7" s="87"/>
+      <c r="V7" s="95"/>
       <c r="W7" s="4" t="s">
         <v>36</v>
       </c>
@@ -4979,7 +4979,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="31"/>
       <c r="U8" s="63"/>
-      <c r="V8" s="87"/>
+      <c r="V8" s="95"/>
       <c r="W8" s="4" t="s">
         <v>22</v>
       </c>
@@ -4991,7 +4991,9 @@
       <c r="B9" s="55">
         <v>44225</v>
       </c>
-      <c r="C9" s="55"/>
+      <c r="C9" s="55">
+        <v>44226</v>
+      </c>
       <c r="D9" s="56" t="s">
         <v>74</v>
       </c>
@@ -5028,7 +5030,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="63"/>
       <c r="U9" s="63"/>
-      <c r="V9" s="87"/>
+      <c r="V9" s="95"/>
       <c r="W9" s="4" t="s">
         <v>60</v>
       </c>
@@ -5057,7 +5059,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="63"/>
       <c r="U10" s="63"/>
-      <c r="V10" s="87"/>
+      <c r="V10" s="95"/>
       <c r="W10" s="4" t="s">
         <v>32</v>
       </c>
@@ -5086,7 +5088,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="63"/>
       <c r="U11" s="63"/>
-      <c r="V11" s="87"/>
+      <c r="V11" s="95"/>
       <c r="W11" s="4" t="s">
         <v>31</v>
       </c>
@@ -5115,7 +5117,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="63"/>
       <c r="U12" s="63"/>
-      <c r="V12" s="86" t="s">
+      <c r="V12" s="94" t="s">
         <v>20</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -5146,7 +5148,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="63"/>
       <c r="U13" s="63"/>
-      <c r="V13" s="87"/>
+      <c r="V13" s="95"/>
       <c r="W13" s="4" t="s">
         <v>38</v>
       </c>
@@ -5175,7 +5177,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="63"/>
       <c r="U14" s="63"/>
-      <c r="V14" s="87"/>
+      <c r="V14" s="95"/>
       <c r="W14" s="4" t="s">
         <v>37</v>
       </c>
@@ -5204,7 +5206,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="63"/>
       <c r="U15" s="17"/>
-      <c r="V15" s="87"/>
+      <c r="V15" s="95"/>
       <c r="W15" s="4" t="s">
         <v>25</v>
       </c>
@@ -5233,7 +5235,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="63"/>
       <c r="U16" s="17"/>
-      <c r="V16" s="88"/>
+      <c r="V16" s="96"/>
       <c r="W16" s="4" t="s">
         <v>26</v>
       </c>
@@ -7814,6 +7816,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -7824,16 +7836,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7844,8 +7846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView showZeros="0" topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7876,42 +7878,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
-      <c r="O1" s="92"/>
-      <c r="P1" s="92"/>
-      <c r="Q1" s="92"/>
-      <c r="R1" s="92"/>
-      <c r="S1" s="92"/>
-      <c r="T1" s="92"/>
-      <c r="U1" s="92"/>
-      <c r="V1" s="92"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
     </row>
     <row r="2" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="95" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="95"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="6"/>
       <c r="H2" s="25"/>
       <c r="I2" s="25"/>
@@ -7954,57 +7956,57 @@
       <c r="V3" s="32"/>
     </row>
     <row r="4" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="90" t="s">
+      <c r="K4" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="90"/>
-      <c r="M4" s="97" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="97" t="s">
+      <c r="N4" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="90" t="s">
+      <c r="O4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="90" t="s">
+      <c r="Q4" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="90" t="s">
+      <c r="R4" s="86" t="s">
         <v>62</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="98" t="s">
         <v>63</v>
       </c>
       <c r="T4" s="31"/>
-      <c r="U4" s="90" t="s">
+      <c r="U4" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="V4" s="90" t="s">
+      <c r="V4" s="86" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="96"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -8029,23 +8031,23 @@
       <c r="I5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="90"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="98"/>
-      <c r="N5" s="98"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="90"/>
-      <c r="R5" s="90"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="93"/>
+      <c r="N5" s="93"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="97"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="98"/>
       <c r="T5" s="31"/>
-      <c r="U5" s="90"/>
-      <c r="V5" s="90"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
     </row>
     <row r="6" spans="1:22" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -8094,7 +8096,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="14"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="94" t="s">
         <v>19</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -8124,7 +8126,7 @@
       <c r="R7" s="56"/>
       <c r="S7" s="4"/>
       <c r="T7" s="14"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="95"/>
       <c r="V7" s="4" t="s">
         <v>36</v>
       </c>
@@ -8152,7 +8154,7 @@
       <c r="R8" s="56"/>
       <c r="S8" s="4"/>
       <c r="T8" s="14"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="95"/>
       <c r="V8" s="4" t="s">
         <v>22</v>
       </c>
@@ -8180,7 +8182,7 @@
       <c r="R9" s="56"/>
       <c r="S9" s="4"/>
       <c r="T9" s="24"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="95"/>
       <c r="V9" s="4" t="s">
         <v>60</v>
       </c>
@@ -8208,7 +8210,7 @@
       <c r="R10" s="56"/>
       <c r="S10" s="4"/>
       <c r="T10" s="33"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="95"/>
       <c r="V10" s="4" t="s">
         <v>32</v>
       </c>
@@ -8236,7 +8238,7 @@
       <c r="R11" s="56"/>
       <c r="S11" s="4"/>
       <c r="T11" s="14"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="95"/>
       <c r="V11" s="4" t="s">
         <v>31</v>
       </c>
@@ -8264,7 +8266,7 @@
       <c r="R12" s="56"/>
       <c r="S12" s="4"/>
       <c r="T12" s="14"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="94" t="s">
         <v>20</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -8294,7 +8296,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="14"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="95"/>
       <c r="V13" s="4" t="s">
         <v>38</v>
       </c>
@@ -8322,7 +8324,7 @@
       <c r="R14" s="56"/>
       <c r="S14" s="4"/>
       <c r="T14" s="14"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="95"/>
       <c r="V14" s="4" t="s">
         <v>37</v>
       </c>
@@ -8350,7 +8352,7 @@
       <c r="R15" s="56"/>
       <c r="S15" s="4"/>
       <c r="T15" s="17"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="95"/>
       <c r="V15" s="4" t="s">
         <v>25</v>
       </c>
@@ -8378,7 +8380,7 @@
       <c r="R16" s="56"/>
       <c r="S16" s="4"/>
       <c r="T16" s="17"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="96"/>
       <c r="V16" s="4" t="s">
         <v>26</v>
       </c>
@@ -9512,11 +9514,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="P4:P5"/>
@@ -9530,6 +9527,11 @@
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9540,8 +9542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9572,43 +9574,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
-      <c r="O1" s="92"/>
-      <c r="P1" s="92"/>
-      <c r="Q1" s="92"/>
-      <c r="R1" s="92"/>
-      <c r="S1" s="92"/>
-      <c r="T1" s="92"/>
-      <c r="U1" s="92"/>
-      <c r="V1" s="92"/>
-      <c r="W1" s="92"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
+      <c r="W1" s="87"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="95" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="95"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="6"/>
       <c r="H2" s="25"/>
       <c r="I2" s="66"/>
@@ -9653,42 +9655,42 @@
       <c r="W3" s="32"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="90" t="s">
+      <c r="K4" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="90"/>
-      <c r="M4" s="97" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="97" t="s">
+      <c r="N4" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="90" t="s">
+      <c r="O4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="90" t="s">
+      <c r="Q4" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="90" t="s">
+      <c r="R4" s="86" t="s">
         <v>62</v>
       </c>
       <c r="S4" s="102" t="s">
@@ -9696,15 +9698,15 @@
       </c>
       <c r="T4" s="31"/>
       <c r="U4" s="31"/>
-      <c r="V4" s="90" t="s">
+      <c r="V4" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="W4" s="90" t="s">
+      <c r="W4" s="86" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="96"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -9729,24 +9731,24 @@
       <c r="I5" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="90"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="98"/>
-      <c r="N5" s="98"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="90"/>
-      <c r="R5" s="90"/>
+      <c r="M5" s="93"/>
+      <c r="N5" s="93"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="97"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
       <c r="S5" s="103"/>
       <c r="T5" s="31"/>
       <c r="U5" s="31"/>
-      <c r="V5" s="90"/>
-      <c r="W5" s="90"/>
+      <c r="V5" s="86"/>
+      <c r="W5" s="86"/>
     </row>
     <row r="6" spans="1:23" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -9786,7 +9788,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="31"/>
       <c r="U6" s="33"/>
-      <c r="V6" s="86" t="s">
+      <c r="V6" s="94" t="s">
         <v>19</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -9797,27 +9799,53 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="57"/>
+      <c r="B7" s="55">
+        <v>44216</v>
+      </c>
+      <c r="C7" s="55">
+        <v>44217</v>
+      </c>
+      <c r="D7" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="57">
+        <v>864811037149015</v>
+      </c>
       <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="1"/>
+      <c r="G7" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" s="85"/>
+      <c r="I7" s="81" t="s">
+        <v>98</v>
+      </c>
+      <c r="J7" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="K7" s="61" t="s">
+        <v>97</v>
+      </c>
       <c r="L7" s="58"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="58"/>
-      <c r="P7" s="58"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="61"/>
+      <c r="M7" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="N7" s="60"/>
+      <c r="O7" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="P7" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="56" t="s">
+        <v>31</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="31"/>
       <c r="U7" s="33"/>
-      <c r="V7" s="87"/>
+      <c r="V7" s="95"/>
       <c r="W7" s="4" t="s">
         <v>36</v>
       </c>
@@ -9826,27 +9854,55 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="57"/>
+      <c r="B8" s="55">
+        <v>44212</v>
+      </c>
+      <c r="C8" s="55">
+        <v>44217</v>
+      </c>
+      <c r="D8" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="57">
+        <v>868183034520630</v>
+      </c>
       <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="58"/>
+      <c r="G8" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="I8" s="81" t="s">
+        <v>83</v>
+      </c>
+      <c r="J8" s="58" t="s">
+        <v>88</v>
+      </c>
       <c r="K8" s="61"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="58"/>
+      <c r="L8" s="58" t="s">
+        <v>82</v>
+      </c>
+      <c r="M8" s="58" t="s">
+        <v>92</v>
+      </c>
       <c r="N8" s="60"/>
-      <c r="O8" s="58"/>
-      <c r="P8" s="58"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="56"/>
+      <c r="O8" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="P8" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="R8" s="56" t="s">
+        <v>87</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="31"/>
       <c r="U8" s="33"/>
-      <c r="V8" s="87"/>
+      <c r="V8" s="95"/>
       <c r="W8" s="4" t="s">
         <v>22</v>
       </c>
@@ -9855,27 +9911,53 @@
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="57"/>
+      <c r="B9" s="55">
+        <v>44225</v>
+      </c>
+      <c r="C9" s="55">
+        <v>44225</v>
+      </c>
+      <c r="D9" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="57">
+        <v>868183034775523</v>
+      </c>
       <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="61"/>
-      <c r="M9" s="58"/>
+      <c r="G9" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="85"/>
+      <c r="I9" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="J9" s="58" t="s">
+        <v>102</v>
+      </c>
+      <c r="K9" s="58" t="s">
+        <v>82</v>
+      </c>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58" t="s">
+        <v>103</v>
+      </c>
       <c r="N9" s="3"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="58"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="61"/>
+      <c r="O9" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="P9" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="56" t="s">
+        <v>104</v>
+      </c>
       <c r="S9" s="4"/>
       <c r="T9" s="33"/>
       <c r="U9" s="33"/>
-      <c r="V9" s="87"/>
+      <c r="V9" s="95"/>
       <c r="W9" s="4" t="s">
         <v>60</v>
       </c>
@@ -9884,27 +9966,49 @@
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="55"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="57"/>
+      <c r="B10" s="55">
+        <v>44208</v>
+      </c>
+      <c r="C10" s="55">
+        <v>44214</v>
+      </c>
+      <c r="D10" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="57" t="s">
+        <v>75</v>
+      </c>
       <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
+      <c r="G10" s="56" t="s">
+        <v>76</v>
+      </c>
       <c r="H10" s="56"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58" t="s">
+        <v>79</v>
+      </c>
       <c r="K10" s="61"/>
       <c r="L10" s="58"/>
-      <c r="M10" s="58"/>
+      <c r="M10" s="58" t="s">
+        <v>80</v>
+      </c>
       <c r="N10" s="60"/>
-      <c r="O10" s="58"/>
-      <c r="P10" s="58"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="56"/>
+      <c r="O10" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="P10" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="56" t="s">
+        <v>31</v>
+      </c>
       <c r="S10" s="4"/>
       <c r="T10" s="33"/>
       <c r="U10" s="33"/>
-      <c r="V10" s="87"/>
+      <c r="V10" s="95"/>
       <c r="W10" s="4" t="s">
         <v>32</v>
       </c>
@@ -9913,27 +10017,53 @@
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="57"/>
+      <c r="B11" s="55">
+        <v>44208</v>
+      </c>
+      <c r="C11" s="55">
+        <v>44214</v>
+      </c>
+      <c r="D11" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="62" t="s">
+        <v>77</v>
+      </c>
       <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="61"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="60"/>
-      <c r="O11" s="58"/>
-      <c r="P11" s="58"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="56"/>
+      <c r="G11" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="I11" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="J11" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="N11" s="3"/>
+      <c r="O11" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="P11" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="61" t="s">
+        <v>31</v>
+      </c>
       <c r="S11" s="4"/>
       <c r="T11" s="33"/>
       <c r="U11" s="33"/>
-      <c r="V11" s="87"/>
+      <c r="V11" s="95"/>
       <c r="W11" s="4" t="s">
         <v>31</v>
       </c>
@@ -9942,27 +10072,51 @@
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="55"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="62"/>
+      <c r="B12" s="55">
+        <v>44216</v>
+      </c>
+      <c r="C12" s="55">
+        <v>44217</v>
+      </c>
+      <c r="D12" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="62" t="s">
+        <v>95</v>
+      </c>
       <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="61"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="58"/>
-      <c r="P12" s="58"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="61"/>
+      <c r="G12" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="K12" s="61"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="58" t="s">
+        <v>96</v>
+      </c>
+      <c r="N12" s="60"/>
+      <c r="O12" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="P12" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="56" t="s">
+        <v>31</v>
+      </c>
       <c r="S12" s="4"/>
       <c r="T12" s="33"/>
       <c r="U12" s="33"/>
-      <c r="V12" s="86" t="s">
+      <c r="V12" s="94" t="s">
         <v>20</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -9973,27 +10127,49 @@
       <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="B13" s="55"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="57"/>
+      <c r="B13" s="55">
+        <v>44225</v>
+      </c>
+      <c r="C13" s="55">
+        <v>44226</v>
+      </c>
+      <c r="D13" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="57">
+        <v>203</v>
+      </c>
       <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
+      <c r="G13" s="56" t="s">
+        <v>76</v>
+      </c>
       <c r="H13" s="56"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="11"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="N13" s="3"/>
+      <c r="O13" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="P13" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" s="61" t="s">
+        <v>32</v>
+      </c>
       <c r="S13" s="4"/>
       <c r="T13" s="33"/>
       <c r="U13" s="33"/>
-      <c r="V13" s="87"/>
+      <c r="V13" s="95"/>
       <c r="W13" s="4" t="s">
         <v>38</v>
       </c>
@@ -10002,27 +10178,51 @@
       <c r="A14" s="4">
         <v>9</v>
       </c>
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="57"/>
+      <c r="B14" s="55">
+        <v>44208</v>
+      </c>
+      <c r="C14" s="55">
+        <v>44214</v>
+      </c>
+      <c r="D14" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="57">
+        <v>861359036823449</v>
+      </c>
       <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="58"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="11"/>
+      <c r="G14" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="I14" s="61"/>
+      <c r="J14" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="K14" s="61"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="58" t="s">
+        <v>86</v>
+      </c>
+      <c r="N14" s="60"/>
+      <c r="O14" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="P14" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="R14" s="56" t="s">
+        <v>87</v>
+      </c>
       <c r="S14" s="4"/>
       <c r="T14" s="33"/>
       <c r="U14" s="33"/>
-      <c r="V14" s="87"/>
+      <c r="V14" s="95"/>
       <c r="W14" s="4" t="s">
         <v>37</v>
       </c>
@@ -10051,7 +10251,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="33"/>
       <c r="U15" s="17"/>
-      <c r="V15" s="87"/>
+      <c r="V15" s="95"/>
       <c r="W15" s="4" t="s">
         <v>25</v>
       </c>
@@ -10080,7 +10280,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="33"/>
       <c r="U16" s="17"/>
-      <c r="V16" s="88"/>
+      <c r="V16" s="96"/>
       <c r="W16" s="4" t="s">
         <v>26</v>
       </c>
@@ -10231,7 +10431,7 @@
       </c>
       <c r="W21" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PC")</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10263,7 +10463,7 @@
       </c>
       <c r="W22" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PC+PM")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10412,7 +10612,7 @@
       </c>
       <c r="W27" s="11">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10508,7 +10708,7 @@
       </c>
       <c r="W30" s="11">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10540,7 +10740,7 @@
       </c>
       <c r="W31" s="11">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10668,7 +10868,7 @@
       </c>
       <c r="W35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10732,7 +10932,7 @@
       </c>
       <c r="W37" s="11">
         <f>SUM(W26:W36)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10967,7 +11167,7 @@
       </c>
       <c r="W45" s="11">
         <f>COUNTIF($D$6:$D$105,"TG102E")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10999,7 +11199,7 @@
       </c>
       <c r="W46" s="11">
         <f>COUNTIF($D$6:$D$105,"TG102LE")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11095,7 +11295,7 @@
       </c>
       <c r="W49" s="11">
         <f>COUNTIF($D$6:$D$105,"TG102SE")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11319,7 +11519,7 @@
       </c>
       <c r="W56" s="99">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12661,6 +12861,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -12671,16 +12881,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
